--- a/Design-Phase-Reports-Columns Latest(ikhwan)210204.xlsx
+++ b/Design-Phase-Reports-Columns Latest(ikhwan)210204.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikhwan.lutfi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikhwan.lutfi\Downloads\try\Ikhwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="20" r:id="rId1"/>
@@ -1747,7 +1747,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="462">
   <si>
     <t>Level</t>
   </si>
@@ -2614,18 +2614,7 @@
     <t>CPAB</t>
   </si>
   <si>
-    <t>2. Tarikh Status Rekabentuk Terperinci</t>
-  </si>
-  <si>
     <t>a. Verifikasi/Validasi Rekabentuk Terperinci - KP (JALAN)
-b. Verifikasi/Validasi Rekabentuk Terperinci (lead HODT) -JALAN
-c. Verifikasi RB Teperincini
-d. Verifikasi RB Teperincini - Perunding</t>
-  </si>
-  <si>
-    <t>1.
-2.
-a. Verifikasi/Validasi Rekabentuk Terperinci - KP (JALAN)
 b. Verifikasi/Validasi Rekabentuk Terperinci (lead HODT) -JALAN
 c. Verifikasi RB Teperincini
 d. Verifikasi RB Teperincini - Perunding</t>
@@ -3260,6 +3249,27 @@
   </si>
   <si>
     <t>Tarikh Surat</t>
+  </si>
+  <si>
+    <t>D-Plan Status </t>
+  </si>
+  <si>
+    <t>Pelan Kualiti Projek(Q-Plan) Line Item</t>
+  </si>
+  <si>
+    <t>1. Pelan Kualiti Projek(Q-Plan) Line Item</t>
+  </si>
+  <si>
+    <t>1. D-Plan Status 
+2. Tarikh Status Rekabentuk Terperinci</t>
+  </si>
+  <si>
+    <t>1. Pelan Kualiti Projek(Q-Plan) Line Item
+2.
+a. Verifikasi/Validasi Rekabentuk Terperinci - KP (JALAN)
+b. Verifikasi/Validasi Rekabentuk Terperinci (lead HODT) -JALAN
+c. Verifikasi RB Teperincini
+d. Verifikasi RB Teperincini - Perunding</t>
   </si>
 </sst>
 </file>
@@ -3990,7 +4000,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4388,9 +4398,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4575,6 +4582,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -40074,31 +40095,31 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="93" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="116" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="116" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="116" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="B6" s="95" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C6" s="95"/>
       <c r="D6" s="95" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I6" s="117" t="s">
         <v>281</v>
@@ -40232,7 +40253,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="95" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B12" s="96">
         <v>44158</v>
@@ -40243,17 +40264,17 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="95" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="97" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="97" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -40274,13 +40295,13 @@
         <v>269</v>
       </c>
       <c r="D20" s="95" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>369</v>
+      </c>
+      <c r="F20" s="95" t="s">
         <v>370</v>
-      </c>
-      <c r="E20" s="95" t="s">
-        <v>371</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>372</v>
       </c>
       <c r="G20" s="73"/>
       <c r="H20" s="73"/>
@@ -40294,7 +40315,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="101" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E21" s="101">
         <v>17</v>
@@ -40311,7 +40332,7 @@
       </c>
       <c r="C22" s="104"/>
       <c r="D22" s="94" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G22" s="103"/>
       <c r="H22" s="99"/>
@@ -40325,7 +40346,7 @@
       </c>
       <c r="C23" s="104"/>
       <c r="D23" s="94" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G23" s="103"/>
       <c r="H23" s="99"/>
@@ -40339,7 +40360,7 @@
       </c>
       <c r="C24" s="104"/>
       <c r="D24" s="94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G24" s="102"/>
       <c r="H24" s="99"/>
@@ -40353,7 +40374,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E25" s="94">
         <v>12</v>
@@ -40370,7 +40391,7 @@
       </c>
       <c r="C26" s="104"/>
       <c r="D26" s="94" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G26" s="103"/>
       <c r="H26" s="99"/>
@@ -40384,7 +40405,7 @@
       </c>
       <c r="C27" s="104"/>
       <c r="D27" s="94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G27" s="102"/>
       <c r="H27" s="99"/>
@@ -40398,7 +40419,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="101" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E28" s="101">
         <v>19</v>
@@ -40415,7 +40436,7 @@
       </c>
       <c r="C29" s="104"/>
       <c r="D29" s="94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G29" s="102"/>
       <c r="H29" s="99"/>
@@ -40429,7 +40450,7 @@
       </c>
       <c r="C30" s="104"/>
       <c r="D30" s="94" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G30" s="103"/>
       <c r="H30" s="99"/>
@@ -40454,7 +40475,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="101" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E32" s="101">
         <v>27</v>
@@ -40498,7 +40519,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E35" s="94">
         <v>18</v>
@@ -40552,15 +40573,15 @@
       <c r="D40" s="95"/>
       <c r="E40" s="95"/>
       <c r="J40" s="108" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L40" s="95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="109" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B41" s="110"/>
       <c r="C41" s="110"/>
@@ -40575,7 +40596,7 @@
       </c>
       <c r="K41" s="110"/>
       <c r="L41" s="94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P41" s="94" t="s">
         <v>270</v>
@@ -40583,7 +40604,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="109" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B42" s="110"/>
       <c r="C42" s="110"/>
@@ -40598,7 +40619,7 @@
       </c>
       <c r="K42" s="110"/>
       <c r="L42" s="94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P42" s="94" t="s">
         <v>274</v>
@@ -40606,7 +40627,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="109" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B43" s="110"/>
       <c r="C43" s="110"/>
@@ -40621,7 +40642,7 @@
       </c>
       <c r="K43" s="110"/>
       <c r="L43" s="94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P43" s="94" t="s">
         <v>274</v>
@@ -40629,7 +40650,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="109" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B44" s="110"/>
       <c r="C44" s="110"/>
@@ -40644,7 +40665,7 @@
       </c>
       <c r="K44" s="110"/>
       <c r="L44" s="94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P44" s="94" t="s">
         <v>274</v>
@@ -40652,7 +40673,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="109" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B45" s="110"/>
       <c r="C45" s="110"/>
@@ -40667,7 +40688,7 @@
       </c>
       <c r="K45" s="110"/>
       <c r="L45" s="94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P45" s="94" t="s">
         <v>270</v>
@@ -40675,7 +40696,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="109" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B46" s="110"/>
       <c r="C46" s="110"/>
@@ -40690,7 +40711,7 @@
       </c>
       <c r="K46" s="110"/>
       <c r="L46" s="94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P46" s="94" t="s">
         <v>270</v>
@@ -40703,7 +40724,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="109" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B48" s="110"/>
       <c r="C48" s="113"/>
@@ -40727,7 +40748,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="109" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B49" s="110"/>
       <c r="C49" s="111"/>
@@ -40751,7 +40772,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="109" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B50" s="110"/>
       <c r="C50" s="113"/>
@@ -40775,7 +40796,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="115" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B51" s="110"/>
       <c r="C51" s="113"/>
@@ -40790,7 +40811,7 @@
       </c>
       <c r="K51" s="110"/>
       <c r="L51" s="94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N51" s="110"/>
       <c r="P51" s="94" t="s">
@@ -40799,7 +40820,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="109" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B52" s="110"/>
       <c r="C52" s="113"/>
@@ -40814,7 +40835,7 @@
       </c>
       <c r="K52" s="110"/>
       <c r="L52" s="94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N52" s="110"/>
       <c r="P52" s="94" t="s">
@@ -40829,7 +40850,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="109" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C54" s="114"/>
       <c r="D54" s="114"/>
@@ -40838,7 +40859,7 @@
         <v>272</v>
       </c>
       <c r="L54" s="94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P54" s="94" t="s">
         <v>274</v>
@@ -40846,7 +40867,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="109" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C55" s="114"/>
       <c r="D55" s="114"/>
@@ -40855,7 +40876,7 @@
         <v>272</v>
       </c>
       <c r="L55" s="94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P55" s="94" t="s">
         <v>274</v>
@@ -40863,7 +40884,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="109" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C56" s="114"/>
       <c r="D56" s="114"/>
@@ -40872,7 +40893,7 @@
         <v>272</v>
       </c>
       <c r="L56" s="94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P56" s="94" t="s">
         <v>274</v>
@@ -40880,7 +40901,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="109" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C57" s="114"/>
       <c r="D57" s="114"/>
@@ -40889,7 +40910,7 @@
         <v>272</v>
       </c>
       <c r="L57" s="94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P57" s="94" t="s">
         <v>274</v>
@@ -40955,16 +40976,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="219" t="s">
-        <v>429</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
+      <c r="A1" s="218" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="123" t="s">
@@ -41020,18 +41041,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="126"/>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="179" t="s">
+      <c r="E4" s="178" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="178" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194" t="s">
         <v>433</v>
-      </c>
-      <c r="F4" s="179" t="s">
-        <v>434</v>
-      </c>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195" t="s">
-        <v>435</v>
       </c>
       <c r="I4" s="126"/>
     </row>
@@ -41058,7 +41079,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="129" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G6" s="129" t="s">
         <v>138</v>
@@ -41083,10 +41104,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G7" s="127" t="s">
         <v>142</v>
@@ -41105,12 +41126,12 @@
         <v>19</v>
       </c>
       <c r="E8" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="G8" s="195" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" s="194" t="s">
         <v>142</v>
       </c>
       <c r="H8" s="132" t="s">
@@ -41126,17 +41147,17 @@
       <c r="D9" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="195" t="s">
-        <v>408</v>
+      <c r="E9" s="194" t="s">
+        <v>406</v>
       </c>
       <c r="F9" s="135" t="s">
-        <v>437</v>
-      </c>
-      <c r="G9" s="195" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" s="194" t="s">
         <v>142</v>
       </c>
       <c r="H9" s="135" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I9" s="132"/>
       <c r="J9" s="132"/>
@@ -41148,17 +41169,17 @@
       <c r="D10" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="212" t="s">
-        <v>453</v>
+      <c r="E10" s="211" t="s">
+        <v>451</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>428</v>
-      </c>
-      <c r="G10" s="212" t="s">
-        <v>454</v>
+        <v>426</v>
+      </c>
+      <c r="G10" s="211" t="s">
+        <v>452</v>
       </c>
       <c r="H10" s="132" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I10" s="132"/>
       <c r="J10" s="132"/>
@@ -41171,10 +41192,10 @@
         <v>141</v>
       </c>
       <c r="E11" s="135" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G11" s="135" t="s">
         <v>142</v>
@@ -41195,7 +41216,7 @@
         <v>190</v>
       </c>
       <c r="E12" s="135" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F12" s="127" t="s">
         <v>190</v>
@@ -41204,7 +41225,7 @@
         <v>142</v>
       </c>
       <c r="H12" s="135" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I12" s="132"/>
       <c r="J12" s="132"/>
@@ -41219,7 +41240,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F13" s="132" t="s">
         <v>25</v>
@@ -41241,16 +41262,16 @@
         <v>26</v>
       </c>
       <c r="E14" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F14" s="127" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G14" s="135" t="s">
         <v>142</v>
       </c>
       <c r="H14" s="135" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I14" s="132"/>
       <c r="J14" s="132"/>
@@ -41262,11 +41283,11 @@
       <c r="D15" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="212" t="s">
-        <v>450</v>
-      </c>
-      <c r="F15" s="212" t="s">
-        <v>455</v>
+      <c r="E15" s="211" t="s">
+        <v>448</v>
+      </c>
+      <c r="F15" s="211" t="s">
+        <v>453</v>
       </c>
       <c r="G15" s="135" t="s">
         <v>152</v>
@@ -41284,17 +41305,17 @@
       <c r="D16" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="213" t="s">
-        <v>408</v>
+      <c r="E16" s="212" t="s">
+        <v>406</v>
       </c>
       <c r="F16" s="132" t="s">
-        <v>431</v>
-      </c>
-      <c r="G16" s="213" t="s">
+        <v>429</v>
+      </c>
+      <c r="G16" s="212" t="s">
         <v>142</v>
       </c>
       <c r="H16" s="132" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I16" s="132"/>
       <c r="J16" s="132"/>
@@ -41547,18 +41568,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="220" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
+      <c r="A1" s="219" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="129" t="s">
@@ -41577,7 +41598,7 @@
         <v>137</v>
       </c>
       <c r="F2" s="129" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G2" s="129" t="s">
         <v>138</v>
@@ -41620,16 +41641,16 @@
         <v>186</v>
       </c>
       <c r="E4" s="127" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F4" s="127"/>
-      <c r="G4" s="201" t="s">
-        <v>448</v>
+      <c r="G4" s="200" t="s">
+        <v>446</v>
       </c>
       <c r="H4" s="127"/>
       <c r="I4" s="127"/>
       <c r="J4" s="127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63">
@@ -41660,20 +41681,20 @@
         <v>207</v>
       </c>
       <c r="E6" s="127" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>440</v>
+      </c>
+      <c r="G6" s="200" t="s">
+        <v>446</v>
+      </c>
+      <c r="H6" s="127" t="s">
         <v>438</v>
-      </c>
-      <c r="F6" s="127" t="s">
-        <v>442</v>
-      </c>
-      <c r="G6" s="201" t="s">
-        <v>448</v>
-      </c>
-      <c r="H6" s="127" t="s">
-        <v>440</v>
       </c>
       <c r="I6" s="127"/>
       <c r="J6" s="127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -41686,20 +41707,20 @@
         <v>208</v>
       </c>
       <c r="E7" s="127" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>443</v>
-      </c>
-      <c r="G7" s="201" t="s">
-        <v>448</v>
+        <v>441</v>
+      </c>
+      <c r="G7" s="200" t="s">
+        <v>446</v>
       </c>
       <c r="H7" s="127" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I7" s="127"/>
       <c r="J7" s="127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -41712,20 +41733,20 @@
         <v>209</v>
       </c>
       <c r="E8" s="127" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>447</v>
-      </c>
-      <c r="G8" s="201" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="G8" s="200" t="s">
+        <v>446</v>
       </c>
       <c r="H8" s="127" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I8" s="127"/>
       <c r="J8" s="127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
@@ -41738,20 +41759,20 @@
         <v>210</v>
       </c>
       <c r="E9" s="127" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>445</v>
-      </c>
-      <c r="G9" s="201" t="s">
-        <v>448</v>
+        <v>443</v>
+      </c>
+      <c r="G9" s="200" t="s">
+        <v>446</v>
       </c>
       <c r="H9" s="127" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I9" s="127"/>
       <c r="J9" s="127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="47.25">
@@ -41816,9 +41837,9 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="52"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="197"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="127" t="s">
@@ -41833,11 +41854,11 @@
       <c r="D15" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="196" t="s">
+      <c r="E15" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="196" t="s">
-        <v>402</v>
+      <c r="F15" s="195" t="s">
+        <v>400</v>
       </c>
       <c r="G15" s="129" t="s">
         <v>138</v>
@@ -41862,10 +41883,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F16" s="127" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G16" s="127" t="s">
         <v>142</v>
@@ -41884,10 +41905,10 @@
         <v>19</v>
       </c>
       <c r="E17" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G17" s="132" t="s">
         <v>142</v>
@@ -41906,16 +41927,16 @@
         <v>188</v>
       </c>
       <c r="E18" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F18" s="135" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G18" s="132" t="s">
         <v>142</v>
       </c>
       <c r="H18" s="135" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I18" s="132"/>
       <c r="J18" s="132"/>
@@ -41927,17 +41948,17 @@
       <c r="D19" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="212" t="s">
-        <v>453</v>
+      <c r="E19" s="211" t="s">
+        <v>451</v>
       </c>
       <c r="F19" s="132" t="s">
-        <v>428</v>
-      </c>
-      <c r="G19" s="212" t="s">
-        <v>454</v>
+        <v>426</v>
+      </c>
+      <c r="G19" s="211" t="s">
+        <v>452</v>
       </c>
       <c r="H19" s="132" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I19" s="132"/>
       <c r="J19" s="132"/>
@@ -41950,10 +41971,10 @@
         <v>141</v>
       </c>
       <c r="E20" s="135" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F20" s="132" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G20" s="135" t="s">
         <v>142</v>
@@ -41972,7 +41993,7 @@
         <v>190</v>
       </c>
       <c r="E21" s="135" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F21" s="127" t="s">
         <v>190</v>
@@ -41981,7 +42002,7 @@
         <v>142</v>
       </c>
       <c r="H21" s="135" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I21" s="132"/>
       <c r="J21" s="132"/>
@@ -41996,7 +42017,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F22" s="132" t="s">
         <v>25</v>
@@ -42018,16 +42039,16 @@
         <v>26</v>
       </c>
       <c r="E23" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F23" s="127" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G23" s="135" t="s">
         <v>142</v>
       </c>
       <c r="H23" s="135" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I23" s="132"/>
       <c r="J23" s="132"/>
@@ -42040,7 +42061,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F24" s="127" t="s">
         <v>27</v>
@@ -42063,17 +42084,17 @@
       <c r="D25" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="212" t="s">
-        <v>438</v>
+      <c r="E25" s="211" t="s">
+        <v>436</v>
       </c>
       <c r="F25" s="127" t="s">
-        <v>426</v>
-      </c>
-      <c r="G25" s="212" t="s">
-        <v>456</v>
+        <v>424</v>
+      </c>
+      <c r="G25" s="211" t="s">
+        <v>454</v>
       </c>
       <c r="H25" s="132" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I25" s="132"/>
       <c r="J25" s="132"/>
@@ -42091,7 +42112,7 @@
       <c r="H26" s="132"/>
       <c r="I26" s="132"/>
       <c r="J26" s="132" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="31.5">
@@ -42107,7 +42128,7 @@
       <c r="H27" s="132"/>
       <c r="I27" s="132"/>
       <c r="J27" s="132" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.5">
@@ -42123,7 +42144,7 @@
       <c r="H28" s="132"/>
       <c r="I28" s="132"/>
       <c r="J28" s="132" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="31.5">
@@ -42139,7 +42160,7 @@
       <c r="H29" s="132"/>
       <c r="I29" s="132"/>
       <c r="J29" s="132" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -42175,7 +42196,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="67" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -42225,466 +42246,466 @@
       <c r="B3" s="126">
         <v>1</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161" t="s">
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="126"/>
       <c r="B4" s="126">
         <v>2</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="126"/>
       <c r="B5" s="126"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="161" t="s">
+      <c r="E5" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="126"/>
       <c r="B6" s="126"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161" t="s">
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="126"/>
       <c r="B7" s="126"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161" t="s">
+      <c r="C7" s="160"/>
+      <c r="D7" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="126"/>
       <c r="B8" s="126"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161" t="s">
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="126"/>
       <c r="B9" s="126"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161" t="s">
+      <c r="C9" s="160"/>
+      <c r="D9" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="126"/>
       <c r="B10" s="126"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161" t="s">
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="126"/>
       <c r="B11" s="126"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161" t="s">
+      <c r="C11" s="160"/>
+      <c r="D11" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="161" t="s">
+      <c r="E11" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="126"/>
       <c r="B12" s="126"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161" t="s">
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="126"/>
       <c r="B13" s="126"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161" t="s">
+      <c r="C13" s="160"/>
+      <c r="D13" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="126"/>
       <c r="B14" s="126"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161" t="s">
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="126"/>
       <c r="B15" s="126"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161" t="s">
+      <c r="C15" s="160"/>
+      <c r="D15" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="161" t="s">
+      <c r="E15" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="126"/>
       <c r="B16" s="126"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161" t="s">
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="126"/>
       <c r="B17" s="126"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161" t="s">
+      <c r="C17" s="160"/>
+      <c r="D17" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="161" t="s">
+      <c r="E17" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="126"/>
       <c r="B18" s="126"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161" t="s">
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="126"/>
       <c r="B19" s="126"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161" t="s">
+      <c r="C19" s="160"/>
+      <c r="D19" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="161" t="s">
+      <c r="E19" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="126"/>
       <c r="B20" s="126"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161" t="s">
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="126"/>
       <c r="B21" s="126"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161" t="s">
+      <c r="C21" s="160"/>
+      <c r="D21" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="161" t="s">
+      <c r="E21" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="126"/>
       <c r="B22" s="126"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161" t="s">
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="126"/>
       <c r="B23" s="126"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161" t="s">
+      <c r="C23" s="160"/>
+      <c r="D23" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="161" t="s">
+      <c r="E23" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="126"/>
       <c r="B24" s="126"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161" t="s">
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="126"/>
       <c r="B25" s="126"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161" t="s">
+      <c r="C25" s="160"/>
+      <c r="D25" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="161" t="s">
+      <c r="E25" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="168"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="126"/>
       <c r="B26" s="126"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161" t="s">
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="126"/>
       <c r="B27" s="126"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161" t="s">
+      <c r="C27" s="160"/>
+      <c r="D27" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="161" t="s">
+      <c r="E27" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="126"/>
       <c r="B28" s="126"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161" t="s">
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="126"/>
       <c r="B29" s="126"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161" t="s">
+      <c r="C29" s="160"/>
+      <c r="D29" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="161" t="s">
+      <c r="E29" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="126"/>
       <c r="B30" s="126"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161" t="s">
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
     </row>
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="126"/>
       <c r="B31" s="126"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161" t="s">
+      <c r="C31" s="160"/>
+      <c r="D31" s="160" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="161" t="s">
+      <c r="E31" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
     </row>
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="126"/>
       <c r="B32" s="126"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161" t="s">
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="168"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
     </row>
     <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="202"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
+      <c r="A33" s="201"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
@@ -42693,24 +42714,24 @@
       <c r="A34" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="196" t="s">
+      <c r="B34" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196" t="s">
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="196" t="s">
+      <c r="F34" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="196" t="s">
-        <v>402</v>
-      </c>
-      <c r="H34" s="196" t="s">
+      <c r="G34" s="195" t="s">
+        <v>400</v>
+      </c>
+      <c r="H34" s="195" t="s">
         <v>138</v>
       </c>
-      <c r="I34" s="196" t="s">
+      <c r="I34" s="195" t="s">
         <v>6</v>
       </c>
       <c r="J34" s="129" t="s">
@@ -42726,116 +42747,116 @@
         <v>1</v>
       </c>
       <c r="C35" s="132"/>
-      <c r="D35" s="171"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="139" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="132" t="s">
-        <v>408</v>
-      </c>
-      <c r="G35" s="173" t="s">
-        <v>413</v>
-      </c>
-      <c r="H35" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="G35" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="H35" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="172" t="s">
+      <c r="I35" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="53"/>
       <c r="B36" s="132"/>
       <c r="C36" s="132"/>
-      <c r="D36" s="171"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="139" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G36" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H36" s="174" t="s">
+        <v>412</v>
+      </c>
+      <c r="H36" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="I36" s="174" t="s">
+      <c r="I36" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
     </row>
     <row r="37" spans="1:13" ht="15.75">
       <c r="A37" s="53"/>
       <c r="B37" s="132"/>
       <c r="C37" s="132"/>
-      <c r="D37" s="171"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="F37" s="195" t="s">
-        <v>408</v>
-      </c>
-      <c r="G37" s="213" t="s">
-        <v>437</v>
-      </c>
-      <c r="H37" s="195" t="s">
+      <c r="F37" s="194" t="s">
+        <v>406</v>
+      </c>
+      <c r="G37" s="212" t="s">
+        <v>435</v>
+      </c>
+      <c r="H37" s="194" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="213" t="s">
-        <v>436</v>
-      </c>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
+      <c r="I37" s="212" t="s">
+        <v>434</v>
+      </c>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
     </row>
     <row r="38" spans="1:13" ht="30">
       <c r="A38" s="53"/>
       <c r="B38" s="132"/>
       <c r="C38" s="132"/>
-      <c r="D38" s="171"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="212" t="s">
-        <v>453</v>
-      </c>
-      <c r="G38" s="195" t="s">
-        <v>428</v>
-      </c>
-      <c r="H38" s="212" t="s">
-        <v>454</v>
-      </c>
-      <c r="I38" s="195" t="s">
-        <v>427</v>
-      </c>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
+      <c r="F38" s="211" t="s">
+        <v>451</v>
+      </c>
+      <c r="G38" s="194" t="s">
+        <v>426</v>
+      </c>
+      <c r="H38" s="211" t="s">
+        <v>452</v>
+      </c>
+      <c r="I38" s="194" t="s">
+        <v>425</v>
+      </c>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
     </row>
     <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="53"/>
       <c r="B39" s="132"/>
       <c r="C39" s="132"/>
-      <c r="D39" s="171"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="144" t="s">
         <v>141</v>
       </c>
       <c r="F39" s="135" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G39" s="132" t="s">
-        <v>416</v>
-      </c>
-      <c r="H39" s="177" t="s">
+        <v>414</v>
+      </c>
+      <c r="H39" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I39" s="177" t="s">
+      <c r="I39" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="170"/>
     </row>
     <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="53"/>
@@ -42843,47 +42864,47 @@
         <v>2</v>
       </c>
       <c r="C40" s="132"/>
-      <c r="D40" s="171"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="144" t="s">
         <v>190</v>
       </c>
       <c r="F40" s="135" t="s">
-        <v>406</v>
-      </c>
-      <c r="G40" s="173" t="s">
+        <v>404</v>
+      </c>
+      <c r="G40" s="172" t="s">
         <v>190</v>
       </c>
-      <c r="H40" s="177" t="s">
+      <c r="H40" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I40" s="177" t="s">
-        <v>407</v>
-      </c>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
+      <c r="I40" s="176" t="s">
+        <v>405</v>
+      </c>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
     </row>
     <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="53"/>
       <c r="B41" s="132"/>
       <c r="C41" s="132"/>
-      <c r="D41" s="171"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="140" t="s">
         <v>201</v>
       </c>
       <c r="F41" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="H41" s="177" t="s">
+      <c r="H41" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I41" s="171" t="s">
-        <v>410</v>
-      </c>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
+      <c r="I41" s="170" t="s">
+        <v>408</v>
+      </c>
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
     </row>
     <row r="42" spans="1:13" ht="15.75">
       <c r="A42" s="53"/>
@@ -42891,115 +42912,115 @@
         <v>3</v>
       </c>
       <c r="C42" s="132"/>
-      <c r="D42" s="171"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="144" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G42" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="177" t="s">
+      <c r="H42" s="176" t="s">
         <v>142</v>
       </c>
       <c r="I42" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="170"/>
     </row>
     <row r="43" spans="1:13" ht="30">
       <c r="A43" s="53"/>
       <c r="B43" s="132"/>
       <c r="C43" s="132"/>
-      <c r="D43" s="171"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="144" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="135" t="s">
-        <v>408</v>
-      </c>
-      <c r="G43" s="173" t="s">
-        <v>418</v>
-      </c>
-      <c r="H43" s="177" t="s">
+        <v>406</v>
+      </c>
+      <c r="G43" s="172" t="s">
+        <v>416</v>
+      </c>
+      <c r="H43" s="176" t="s">
         <v>142</v>
       </c>
       <c r="I43" s="135" t="s">
-        <v>409</v>
-      </c>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
+        <v>407</v>
+      </c>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
     </row>
     <row r="44" spans="1:13" ht="45">
       <c r="A44" s="53"/>
       <c r="B44" s="132"/>
       <c r="C44" s="132"/>
-      <c r="D44" s="171"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="212" t="s">
-        <v>450</v>
-      </c>
-      <c r="G44" s="212" t="s">
-        <v>455</v>
-      </c>
-      <c r="H44" s="177" t="s">
+      <c r="F44" s="211" t="s">
+        <v>448</v>
+      </c>
+      <c r="G44" s="211" t="s">
+        <v>453</v>
+      </c>
+      <c r="H44" s="176" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="177" t="s">
+      <c r="I44" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
+      <c r="J44" s="170"/>
+      <c r="K44" s="170"/>
     </row>
     <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="53"/>
       <c r="B45" s="132"/>
       <c r="C45" s="132"/>
-      <c r="D45" s="171"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="140" t="s">
-        <v>419</v>
-      </c>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
+        <v>417</v>
+      </c>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
     </row>
     <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="53"/>
       <c r="B46" s="132"/>
       <c r="C46" s="132"/>
-      <c r="D46" s="171"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="140" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="53"/>
       <c r="B47" s="132"/>
       <c r="C47" s="132"/>
-      <c r="D47" s="171"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="140" t="s">
         <v>227</v>
       </c>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="170"/>
     </row>
     <row r="48" spans="1:13" ht="45.75" thickBot="1">
       <c r="A48" s="53"/>
@@ -43007,24 +43028,24 @@
         <v>4</v>
       </c>
       <c r="C48" s="132"/>
-      <c r="D48" s="171"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="140" t="s">
         <v>228</v>
       </c>
       <c r="F48" s="127" t="s">
-        <v>420</v>
-      </c>
-      <c r="G48" s="212" t="s">
-        <v>457</v>
+        <v>418</v>
+      </c>
+      <c r="G48" s="211" t="s">
+        <v>455</v>
       </c>
       <c r="H48" s="132" t="s">
         <v>142</v>
       </c>
       <c r="I48" s="132" t="s">
-        <v>421</v>
-      </c>
-      <c r="J48" s="171"/>
-      <c r="K48" s="171"/>
+        <v>419</v>
+      </c>
+      <c r="J48" s="170"/>
+      <c r="K48" s="170"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickBot="1">
       <c r="A49" s="53"/>
@@ -43032,24 +43053,24 @@
         <v>5</v>
       </c>
       <c r="C49" s="132"/>
-      <c r="D49" s="171"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="140" t="s">
         <v>229</v>
       </c>
       <c r="F49" s="132" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49" s="213" t="s">
+        <v>456</v>
+      </c>
+      <c r="H49" s="132" t="s">
+        <v>421</v>
+      </c>
+      <c r="I49" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="G49" s="214" t="s">
-        <v>458</v>
-      </c>
-      <c r="H49" s="132" t="s">
-        <v>423</v>
-      </c>
-      <c r="I49" s="132" t="s">
-        <v>424</v>
-      </c>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
+      <c r="J49" s="170"/>
+      <c r="K49" s="170"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43079,17 +43100,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="220" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
+      <c r="A1" s="219" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="129" t="s">
@@ -43104,42 +43125,42 @@
       <c r="D2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="199" t="s">
+      <c r="E2" s="198" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="F2" s="198" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="199" t="s">
+      <c r="H2" s="198" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="199" t="s">
+      <c r="I2" s="198" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="204" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="200">
+      <c r="B3" s="199">
         <v>1</v>
       </c>
       <c r="C3" s="139"/>
       <c r="D3" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="205"/>
-      <c r="B4" s="200">
+      <c r="A4" s="204"/>
+      <c r="B4" s="199">
         <v>2</v>
       </c>
       <c r="C4" s="139" t="s">
@@ -43148,50 +43169,50 @@
       <c r="D4" s="139" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="205"/>
-      <c r="B5" s="200"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="139"/>
       <c r="D5" s="139" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="205"/>
-      <c r="B6" s="200"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="199"/>
       <c r="C6" s="139"/>
       <c r="D6" s="139" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="205"/>
-      <c r="B7" s="200"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="199"/>
       <c r="C7" s="139"/>
       <c r="D7" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="122"/>
@@ -43216,7 +43237,7 @@
         <v>137</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G9" s="130" t="s">
         <v>138</v>
@@ -43280,19 +43301,19 @@
       <c r="B13" s="127"/>
       <c r="C13" s="133"/>
       <c r="D13" s="141" t="s">
-        <v>412</v>
-      </c>
-      <c r="E13" s="206" t="s">
-        <v>408</v>
+        <v>410</v>
+      </c>
+      <c r="E13" s="205" t="s">
+        <v>406</v>
       </c>
       <c r="F13" s="127" t="s">
         <v>238</v>
       </c>
-      <c r="G13" s="207" t="s">
+      <c r="G13" s="206" t="s">
         <v>142</v>
       </c>
       <c r="H13" s="133" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
@@ -43320,8 +43341,8 @@
       <c r="D15" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="208" t="s">
-        <v>408</v>
+      <c r="E15" s="207" t="s">
+        <v>406</v>
       </c>
       <c r="F15" s="133"/>
       <c r="G15" s="133" t="s">
@@ -43340,17 +43361,17 @@
       <c r="D16" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="206" t="s">
+      <c r="E16" s="205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="208" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="206" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="133" t="s">
         <v>408</v>
-      </c>
-      <c r="F16" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="207" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="133" t="s">
-        <v>410</v>
       </c>
       <c r="I16" s="133"/>
       <c r="J16" s="133"/>
@@ -43378,16 +43399,16 @@
       <c r="D18" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="206" t="s">
-        <v>408</v>
-      </c>
-      <c r="F18" s="209" t="s">
+      <c r="E18" s="205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F18" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="207" t="s">
+      <c r="G18" s="206" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="206" t="s">
+      <c r="H18" s="205" t="s">
         <v>150</v>
       </c>
       <c r="I18" s="133"/>
@@ -43400,17 +43421,17 @@
       <c r="D19" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="206" t="s">
-        <v>408</v>
+      <c r="E19" s="205" t="s">
+        <v>406</v>
       </c>
       <c r="F19" s="148" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="207" t="s">
+        <v>416</v>
+      </c>
+      <c r="G19" s="206" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="206" t="s">
-        <v>409</v>
+      <c r="H19" s="205" t="s">
+        <v>407</v>
       </c>
       <c r="I19" s="133"/>
       <c r="J19" s="133"/>
@@ -43422,12 +43443,12 @@
       <c r="D20" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="210"/>
+      <c r="E20" s="209"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="211" t="s">
+      <c r="G20" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="211" t="s">
+      <c r="H20" s="210" t="s">
         <v>154</v>
       </c>
       <c r="I20" s="133"/>
@@ -43440,16 +43461,16 @@
       <c r="D21" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="212" t="s">
-        <v>450</v>
-      </c>
-      <c r="F21" s="212" t="s">
-        <v>455</v>
-      </c>
-      <c r="G21" s="207" t="s">
+      <c r="E21" s="211" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" s="211" t="s">
+        <v>453</v>
+      </c>
+      <c r="G21" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="207" t="s">
+      <c r="H21" s="206" t="s">
         <v>153</v>
       </c>
       <c r="I21" s="133"/>
@@ -43464,10 +43485,10 @@
       <c r="D22" s="157" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
       <c r="I22" s="133"/>
       <c r="J22" s="133"/>
     </row>
@@ -43503,152 +43524,152 @@
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="69"/>
       <c r="B1" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="214" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="215"/>
+      <c r="E1" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="72" t="s">
         <v>337</v>
-      </c>
-      <c r="C1" s="215" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="216"/>
-      <c r="E1" s="71" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="75" t="s">
         <v>340</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>342</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="77" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="79" t="s">
+      <c r="E3" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="82" t="s">
         <v>344</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>342</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="69" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4" s="83" t="s">
         <v>163</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="69" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B6" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>351</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>353</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="82" t="s">
         <v>351</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45.75" thickBot="1">
       <c r="A7" s="85" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="87" t="s">
         <v>354</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="D7" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="E7" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="90" t="s">
         <v>356</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>357</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>353</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>358</v>
       </c>
       <c r="G7" s="91"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="92" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="92" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="92" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="92" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -43692,21 +43713,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>291</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="60" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -43714,190 +43735,190 @@
     </row>
     <row r="3" spans="1:4" ht="105">
       <c r="A3" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="D3" s="62" t="s">
         <v>296</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="120">
       <c r="A4" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="D4" s="62" t="s">
         <v>300</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="120">
       <c r="A5" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="D5" s="62" t="s">
         <v>304</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120">
       <c r="A6" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>308</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="63"/>
       <c r="C7" s="65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="120">
       <c r="A8" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>312</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="120">
       <c r="A9" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>317</v>
-      </c>
       <c r="D9" s="62" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="120">
       <c r="A10" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>320</v>
-      </c>
       <c r="D10" s="62" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120">
       <c r="A11" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>323</v>
-      </c>
       <c r="D11" s="62" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="135">
       <c r="A13" s="60" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B13" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>324</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="135">
       <c r="A14" s="60" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="135">
       <c r="A15" s="60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="135">
       <c r="A16" s="60" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="165">
       <c r="A18" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="62" t="s">
         <v>333</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -43910,8 +43931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15"/>
@@ -43920,232 +43941,267 @@
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
     <col min="11" max="11" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
     </row>
     <row r="2" spans="1:13" ht="30">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="124" t="s">
-        <v>402</v>
-      </c>
-      <c r="I2" s="124" t="s">
+      <c r="H2" s="129" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="124" t="s">
+      <c r="K2" s="129" t="s">
         <v>264</v>
       </c>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
     </row>
     <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="127">
         <v>1</v>
       </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154" t="s">
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" t="s">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="221" t="s">
         <v>169</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="221" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="31.5">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55">
+      <c r="A4" s="127"/>
+      <c r="B4" s="127">
         <v>2</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154" t="s">
+      <c r="D4" s="139"/>
+      <c r="E4" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="178" t="s">
+        <v>458</v>
+      </c>
+      <c r="G4" s="178" t="s">
         <v>258</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55" t="s">
+      <c r="H4" s="178" t="s">
+        <v>457</v>
+      </c>
+      <c r="I4" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="127" t="s">
         <v>248</v>
       </c>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:13" ht="180">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154" t="s">
+      <c r="K4" s="127"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+    </row>
+    <row r="5" spans="1:13" ht="120">
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="127" t="s">
+        <v>461</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="127" t="s">
+        <v>460</v>
+      </c>
+      <c r="I5" s="127" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="K5" s="127"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+    </row>
+    <row r="6" spans="1:13" ht="90">
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>459</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="127" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="127" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="127"/>
+      <c r="L6" s="221"/>
+      <c r="M6" s="221"/>
+    </row>
+    <row r="7" spans="1:13" ht="90">
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="127" t="s">
+        <v>460</v>
+      </c>
+      <c r="I7" s="127" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="127" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="127"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="221"/>
+    </row>
+    <row r="8" spans="1:13" ht="150">
+      <c r="A8" s="127"/>
+      <c r="B8" s="127">
+        <v>3</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="K5" s="55"/>
-    </row>
-    <row r="6" spans="1:13" ht="90">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" spans="1:13" ht="90">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="1:13" ht="150">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55">
-        <v>3</v>
-      </c>
-      <c r="C8" s="154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55" t="s">
+      <c r="H8" s="127"/>
+      <c r="I8" s="127" t="s">
         <v>246</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="221"/>
     </row>
     <row r="9" spans="1:13" ht="15.75">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55">
+      <c r="A9" s="127"/>
+      <c r="B9" s="127">
         <v>4</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154" t="s">
+      <c r="D9" s="139"/>
+      <c r="E9" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
     </row>
     <row r="10" spans="1:13" ht="15.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="222"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="221"/>
     </row>
     <row r="11" spans="1:13" ht="30">
       <c r="A11" s="127" t="s">
@@ -44167,7 +44223,7 @@
         <v>137</v>
       </c>
       <c r="G11" s="130" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H11" s="130" t="s">
         <v>138</v>
@@ -44181,6 +44237,8 @@
       <c r="K11" s="130" t="s">
         <v>264</v>
       </c>
+      <c r="L11" s="221"/>
+      <c r="M11" s="221"/>
     </row>
     <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="127"/>
@@ -44193,10 +44251,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G12" s="148" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H12" s="133" t="s">
         <v>142</v>
@@ -44206,6 +44264,8 @@
       </c>
       <c r="J12" s="131"/>
       <c r="K12" s="131"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="221"/>
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="127"/>
@@ -44216,10 +44276,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G13" s="149" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H13" s="133" t="s">
         <v>142</v>
@@ -44229,6 +44289,8 @@
       </c>
       <c r="J13" s="131"/>
       <c r="K13" s="131"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="221"/>
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="127"/>
@@ -44239,10 +44301,10 @@
         <v>20</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G14" s="149" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H14" s="133" t="s">
         <v>142</v>
@@ -44252,6 +44314,8 @@
       </c>
       <c r="J14" s="131"/>
       <c r="K14" s="131"/>
+      <c r="L14" s="221"/>
+      <c r="M14" s="221"/>
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="127"/>
@@ -44262,7 +44326,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G15" s="148" t="s">
         <v>21</v>
@@ -44275,6 +44339,8 @@
       </c>
       <c r="J15" s="131"/>
       <c r="K15" s="131"/>
+      <c r="L15" s="221"/>
+      <c r="M15" s="221"/>
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="127"/>
@@ -44285,10 +44351,10 @@
         <v>141</v>
       </c>
       <c r="F16" s="147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G16" s="149" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H16" s="133" t="s">
         <v>142</v>
@@ -44298,8 +44364,10 @@
       </c>
       <c r="J16" s="131"/>
       <c r="K16" s="131"/>
-    </row>
-    <row r="17" spans="1:11" ht="24">
+      <c r="L16" s="221"/>
+      <c r="M16" s="221"/>
+    </row>
+    <row r="17" spans="1:13" ht="24">
       <c r="A17" s="127"/>
       <c r="B17" s="127">
         <v>2</v>
@@ -44310,10 +44378,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G17" s="148" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H17" s="133" t="s">
         <v>142</v>
@@ -44323,8 +44391,10 @@
       </c>
       <c r="J17" s="131"/>
       <c r="K17" s="131"/>
-    </row>
-    <row r="18" spans="1:11" ht="30">
+      <c r="L17" s="221"/>
+      <c r="M17" s="221"/>
+    </row>
+    <row r="18" spans="1:13" ht="30">
       <c r="A18" s="127"/>
       <c r="B18" s="127"/>
       <c r="C18" s="131"/>
@@ -44332,8 +44402,8 @@
       <c r="E18" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="212" t="s">
-        <v>449</v>
+      <c r="F18" s="223" t="s">
+        <v>447</v>
       </c>
       <c r="G18" s="149" t="s">
         <v>24</v>
@@ -44346,8 +44416,10 @@
       </c>
       <c r="J18" s="131"/>
       <c r="K18" s="131"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="127"/>
       <c r="B19" s="127">
         <v>3</v>
@@ -44358,7 +44430,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="150" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G19" s="149" t="s">
         <v>25</v>
@@ -44371,8 +44443,10 @@
       </c>
       <c r="J19" s="131"/>
       <c r="K19" s="131"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="127"/>
       <c r="B20" s="127"/>
       <c r="C20" s="131"/>
@@ -44381,10 +44455,10 @@
         <v>26</v>
       </c>
       <c r="F20" s="150" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G20" s="148" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H20" s="137" t="s">
         <v>142</v>
@@ -44394,8 +44468,10 @@
       </c>
       <c r="J20" s="131"/>
       <c r="K20" s="131"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
+      <c r="L20" s="221"/>
+      <c r="M20" s="221"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="127"/>
       <c r="B21" s="127"/>
       <c r="C21" s="131"/>
@@ -44404,7 +44480,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G21" s="127" t="s">
         <v>27</v>
@@ -44417,8 +44493,10 @@
       </c>
       <c r="J21" s="131"/>
       <c r="K21" s="131"/>
-    </row>
-    <row r="22" spans="1:11" ht="30">
+      <c r="L21" s="221"/>
+      <c r="M21" s="221"/>
+    </row>
+    <row r="22" spans="1:13" ht="30">
       <c r="A22" s="127"/>
       <c r="B22" s="127"/>
       <c r="C22" s="131"/>
@@ -44426,11 +44504,11 @@
       <c r="E22" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="212" t="s">
-        <v>450</v>
-      </c>
-      <c r="G22" s="212" t="s">
-        <v>455</v>
+      <c r="F22" s="127" t="s">
+        <v>448</v>
+      </c>
+      <c r="G22" s="127" t="s">
+        <v>453</v>
       </c>
       <c r="H22" s="136" t="s">
         <v>152</v>
@@ -44440,97 +44518,107 @@
       </c>
       <c r="J22" s="131"/>
       <c r="K22" s="131"/>
-    </row>
-    <row r="23" spans="1:11" ht="30">
+      <c r="L22" s="221"/>
+      <c r="M22" s="221"/>
+    </row>
+    <row r="23" spans="1:13" ht="30">
       <c r="A23" s="127"/>
       <c r="B23" s="127">
         <v>4</v>
       </c>
       <c r="C23" s="131"/>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="157" t="s">
+      <c r="E23" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159" t="s">
+      <c r="F23" s="225"/>
+      <c r="G23" s="225"/>
+      <c r="H23" s="225"/>
+      <c r="I23" s="225"/>
+      <c r="J23" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="K23" s="160" t="s">
+      <c r="K23" s="138" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="47.25">
+      <c r="L23" s="221"/>
+      <c r="M23" s="221"/>
+    </row>
+    <row r="24" spans="1:13" ht="47.25">
       <c r="A24" s="127"/>
       <c r="B24" s="127">
         <v>5</v>
       </c>
       <c r="C24" s="131"/>
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="157" t="s">
+      <c r="E24" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="160" t="s">
+      <c r="F24" s="225"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="138" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="47.25">
+      <c r="L24" s="221"/>
+      <c r="M24" s="221"/>
+    </row>
+    <row r="25" spans="1:13" ht="47.25">
       <c r="A25" s="127"/>
       <c r="B25" s="127"/>
       <c r="C25" s="131"/>
-      <c r="D25" s="156" t="s">
+      <c r="D25" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="157" t="s">
+      <c r="E25" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="160" t="s">
+      <c r="F25" s="225"/>
+      <c r="G25" s="225"/>
+      <c r="H25" s="225"/>
+      <c r="I25" s="225"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="138" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="31.5">
+      <c r="L25" s="221"/>
+      <c r="M25" s="221"/>
+    </row>
+    <row r="26" spans="1:13" ht="31.5">
       <c r="A26" s="127"/>
       <c r="B26" s="127"/>
       <c r="C26" s="131"/>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="157" t="s">
+      <c r="E26" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="160" t="s">
+      <c r="F26" s="225"/>
+      <c r="G26" s="225"/>
+      <c r="H26" s="225"/>
+      <c r="I26" s="225"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="138" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" thickBot="1">
+      <c r="L26" s="221"/>
+      <c r="M26" s="221"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75">
+    <row r="28" spans="1:13" ht="15.75">
       <c r="A28" s="38" t="s">
         <v>32</v>
       </c>
@@ -44539,28 +44627,28 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75">
+    <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="39"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75">
+    <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="39"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75">
+    <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="39"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75">
+    <row r="32" spans="1:13" ht="15.75">
       <c r="A32" s="39"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -45231,6 +45319,7 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45257,20 +45346,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="216" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
     </row>
     <row r="2" spans="1:11" ht="30">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="169" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="129" t="s">
@@ -45311,11 +45400,11 @@
       <c r="E3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
     </row>
     <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="127"/>
@@ -45327,11 +45416,11 @@
       <c r="E4" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
     </row>
     <row r="5" spans="1:11" ht="63">
       <c r="A5" s="127"/>
@@ -45345,17 +45434,17 @@
       <c r="E5" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171" t="s">
+      <c r="F5" s="170"/>
+      <c r="G5" s="170" t="s">
         <v>243</v>
       </c>
-      <c r="H5" s="172" t="s">
+      <c r="H5" s="171" t="s">
         <v>249</v>
       </c>
-      <c r="I5" s="172" t="s">
+      <c r="I5" s="171" t="s">
         <v>250</v>
       </c>
-      <c r="J5" s="171"/>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:11" ht="94.5">
       <c r="A6" s="127"/>
@@ -45367,17 +45456,17 @@
       <c r="E6" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="171"/>
-      <c r="G6" s="172" t="s">
+      <c r="F6" s="170"/>
+      <c r="G6" s="171" t="s">
         <v>244</v>
       </c>
-      <c r="H6" s="172" t="s">
+      <c r="H6" s="171" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="172" t="s">
+      <c r="I6" s="171" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="171"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:11" ht="110.25">
       <c r="A7" s="127"/>
@@ -45387,17 +45476,17 @@
       <c r="E7" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="G7" s="172" t="s">
+      <c r="F7" s="170"/>
+      <c r="G7" s="171" t="s">
         <v>244</v>
       </c>
-      <c r="H7" s="172" t="s">
+      <c r="H7" s="171" t="s">
         <v>245</v>
       </c>
-      <c r="I7" s="172" t="s">
+      <c r="I7" s="171" t="s">
         <v>254</v>
       </c>
-      <c r="J7" s="171"/>
+      <c r="J7" s="170"/>
     </row>
     <row r="8" spans="1:11" ht="110.25">
       <c r="A8" s="127"/>
@@ -45407,17 +45496,17 @@
       <c r="E8" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="171"/>
-      <c r="G8" s="172" t="s">
+      <c r="F8" s="170"/>
+      <c r="G8" s="171" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="172" t="s">
+      <c r="H8" s="171" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="172" t="s">
+      <c r="I8" s="171" t="s">
         <v>255</v>
       </c>
-      <c r="J8" s="171"/>
+      <c r="J8" s="170"/>
     </row>
     <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="127"/>
@@ -45431,17 +45520,17 @@
       <c r="E9" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="171"/>
-      <c r="G9" s="172" t="s">
+      <c r="F9" s="170"/>
+      <c r="G9" s="171" t="s">
         <v>247</v>
       </c>
-      <c r="H9" s="172" t="s">
+      <c r="H9" s="171" t="s">
         <v>246</v>
       </c>
-      <c r="I9" s="172" t="s">
+      <c r="I9" s="171" t="s">
         <v>257</v>
       </c>
-      <c r="J9" s="171"/>
+      <c r="J9" s="170"/>
     </row>
     <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="2"/>
@@ -45468,7 +45557,7 @@
         <v>137</v>
       </c>
       <c r="G11" s="129" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H11" s="129" t="s">
         <v>138</v>
@@ -45494,10 +45583,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H12" s="127" t="s">
         <v>142</v>
@@ -45517,10 +45606,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G13" s="132" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H13" s="132" t="s">
         <v>142</v>
@@ -45540,10 +45629,10 @@
         <v>20</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G14" s="132" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H14" s="132" t="s">
         <v>142</v>
@@ -45563,7 +45652,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G15" s="127" t="s">
         <v>21</v>
@@ -45586,10 +45675,10 @@
         <v>141</v>
       </c>
       <c r="F16" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G16" s="132" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H16" s="132" t="s">
         <v>142</v>
@@ -45611,10 +45700,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H17" s="135" t="s">
         <v>142</v>
@@ -45633,8 +45722,8 @@
       <c r="E18" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="212" t="s">
-        <v>449</v>
+      <c r="F18" s="211" t="s">
+        <v>447</v>
       </c>
       <c r="G18" s="132" t="s">
         <v>24</v>
@@ -45659,7 +45748,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G19" s="132" t="s">
         <v>25</v>
@@ -45682,10 +45771,10 @@
         <v>26</v>
       </c>
       <c r="F20" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G20" s="127" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H20" s="135" t="s">
         <v>142</v>
@@ -45705,7 +45794,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G21" s="127" t="s">
         <v>27</v>
@@ -45727,11 +45816,11 @@
       <c r="E22" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="212" t="s">
-        <v>450</v>
-      </c>
-      <c r="G22" s="212" t="s">
-        <v>455</v>
+      <c r="F22" s="211" t="s">
+        <v>448</v>
+      </c>
+      <c r="G22" s="211" t="s">
+        <v>453</v>
       </c>
       <c r="H22" s="135" t="s">
         <v>152</v>
@@ -45752,10 +45841,10 @@
       <c r="E23" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
       <c r="J23" s="132"/>
       <c r="K23" s="132"/>
     </row>
@@ -45769,10 +45858,10 @@
       <c r="E24" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
       <c r="J24" s="132"/>
       <c r="K24" s="132"/>
     </row>
@@ -45784,10 +45873,10 @@
       <c r="E25" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
       <c r="J25" s="132"/>
       <c r="K25" s="132"/>
     </row>
@@ -45799,10 +45888,10 @@
       <c r="E26" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
       <c r="J26" s="132"/>
       <c r="K26" s="132"/>
     </row>
@@ -46459,18 +46548,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="151" t="s">
@@ -46514,11 +46603,11 @@
       <c r="E3" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="55"/>
@@ -46530,471 +46619,471 @@
       <c r="E4" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="55"/>
       <c r="B5" s="55">
         <v>3</v>
       </c>
-      <c r="C5" s="180">
+      <c r="C5" s="179">
         <v>2019</v>
       </c>
       <c r="D5" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="181" t="s">
+      <c r="E5" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168" t="s">
+      <c r="F5" s="167"/>
+      <c r="G5" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H5" s="168" t="s">
+      <c r="H5" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="31.5">
       <c r="A6" s="55"/>
       <c r="B6" s="55"/>
-      <c r="C6" s="180"/>
+      <c r="C6" s="179"/>
       <c r="D6" s="154"/>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169" t="s">
+      <c r="F6" s="167"/>
+      <c r="G6" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="169" t="s">
+      <c r="H6" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="55"/>
       <c r="B7" s="55"/>
-      <c r="C7" s="180"/>
+      <c r="C7" s="179"/>
       <c r="D7" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="181" t="s">
+      <c r="E7" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168" t="s">
+      <c r="F7" s="167"/>
+      <c r="G7" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="168" t="s">
+      <c r="H7" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="1:10" ht="31.5">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
-      <c r="C8" s="180"/>
+      <c r="C8" s="179"/>
       <c r="D8" s="154"/>
-      <c r="E8" s="181" t="s">
+      <c r="E8" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169" t="s">
+      <c r="F8" s="167"/>
+      <c r="G8" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="169" t="s">
+      <c r="H8" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
-      <c r="C9" s="180"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="181" t="s">
+      <c r="E9" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168" t="s">
+      <c r="F9" s="167"/>
+      <c r="G9" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="168" t="s">
+      <c r="H9" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
     </row>
     <row r="10" spans="1:10" ht="31.5">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
-      <c r="C10" s="180"/>
+      <c r="C10" s="179"/>
       <c r="D10" s="154"/>
-      <c r="E10" s="181" t="s">
+      <c r="E10" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="168"/>
-      <c r="G10" s="169" t="s">
+      <c r="F10" s="167"/>
+      <c r="G10" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H10" s="169" t="s">
+      <c r="H10" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
-      <c r="C11" s="180"/>
+      <c r="C11" s="179"/>
       <c r="D11" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="181" t="s">
+      <c r="E11" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168" t="s">
+      <c r="F11" s="167"/>
+      <c r="G11" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="168" t="s">
+      <c r="H11" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
     </row>
     <row r="12" spans="1:10" ht="31.5">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="180"/>
+      <c r="C12" s="179"/>
       <c r="D12" s="154"/>
-      <c r="E12" s="181" t="s">
+      <c r="E12" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="168"/>
-      <c r="G12" s="169" t="s">
+      <c r="F12" s="167"/>
+      <c r="G12" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="169" t="s">
+      <c r="H12" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
-      <c r="C13" s="180"/>
+      <c r="C13" s="179"/>
       <c r="D13" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="181" t="s">
+      <c r="E13" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168" t="s">
+      <c r="F13" s="167"/>
+      <c r="G13" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H13" s="168" t="s">
+      <c r="H13" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
     </row>
     <row r="14" spans="1:10" ht="31.5">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="180"/>
+      <c r="C14" s="179"/>
       <c r="D14" s="154"/>
-      <c r="E14" s="181" t="s">
+      <c r="E14" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="168"/>
-      <c r="G14" s="169" t="s">
+      <c r="F14" s="167"/>
+      <c r="G14" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="169" t="s">
+      <c r="H14" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
-      <c r="C15" s="180"/>
+      <c r="C15" s="179"/>
       <c r="D15" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168" t="s">
+      <c r="F15" s="167"/>
+      <c r="G15" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:10" ht="31.5">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
-      <c r="C16" s="180"/>
+      <c r="C16" s="179"/>
       <c r="D16" s="154"/>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="168"/>
-      <c r="G16" s="169" t="s">
+      <c r="F16" s="167"/>
+      <c r="G16" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="169" t="s">
+      <c r="H16" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="180"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="181" t="s">
+      <c r="E17" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168" t="s">
+      <c r="F17" s="167"/>
+      <c r="G17" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="168" t="s">
+      <c r="H17" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
     </row>
     <row r="18" spans="1:10" ht="31.5">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="180"/>
+      <c r="C18" s="179"/>
       <c r="D18" s="154"/>
-      <c r="E18" s="181" t="s">
+      <c r="E18" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="168"/>
-      <c r="G18" s="169" t="s">
+      <c r="F18" s="167"/>
+      <c r="G18" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="169" t="s">
+      <c r="H18" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="55"/>
       <c r="B19" s="55"/>
-      <c r="C19" s="180"/>
+      <c r="C19" s="179"/>
       <c r="D19" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="181" t="s">
+      <c r="E19" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168" t="s">
+      <c r="F19" s="167"/>
+      <c r="G19" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H19" s="168" t="s">
+      <c r="H19" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
     </row>
     <row r="20" spans="1:10" ht="31.5">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="180"/>
+      <c r="C20" s="179"/>
       <c r="D20" s="154"/>
-      <c r="E20" s="181" t="s">
+      <c r="E20" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="168"/>
-      <c r="G20" s="169" t="s">
+      <c r="F20" s="167"/>
+      <c r="G20" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H20" s="169" t="s">
+      <c r="H20" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
-      <c r="C21" s="180"/>
+      <c r="C21" s="179"/>
       <c r="D21" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="181" t="s">
+      <c r="E21" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168" t="s">
+      <c r="F21" s="167"/>
+      <c r="G21" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H21" s="168" t="s">
+      <c r="H21" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
     </row>
     <row r="22" spans="1:10" ht="31.5">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="180"/>
+      <c r="C22" s="179"/>
       <c r="D22" s="154"/>
-      <c r="E22" s="181" t="s">
+      <c r="E22" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="168"/>
-      <c r="G22" s="169" t="s">
+      <c r="F22" s="167"/>
+      <c r="G22" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H22" s="169" t="s">
+      <c r="H22" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="180"/>
+      <c r="C23" s="179"/>
       <c r="D23" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="181" t="s">
+      <c r="E23" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168" t="s">
+      <c r="F23" s="167"/>
+      <c r="G23" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H23" s="168" t="s">
+      <c r="H23" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" ht="31.5">
       <c r="A24" s="55"/>
       <c r="B24" s="55"/>
-      <c r="C24" s="180"/>
+      <c r="C24" s="179"/>
       <c r="D24" s="154"/>
-      <c r="E24" s="181" t="s">
+      <c r="E24" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="168"/>
-      <c r="G24" s="169" t="s">
+      <c r="F24" s="167"/>
+      <c r="G24" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H24" s="169" t="s">
+      <c r="H24" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="180"/>
+      <c r="C25" s="179"/>
       <c r="D25" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="181" t="s">
+      <c r="E25" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168" t="s">
+      <c r="F25" s="167"/>
+      <c r="G25" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H25" s="168" t="s">
+      <c r="H25" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I25" s="168"/>
-      <c r="J25" s="168"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
     </row>
     <row r="26" spans="1:10" ht="31.5">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
-      <c r="C26" s="180"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="154"/>
-      <c r="E26" s="181" t="s">
+      <c r="E26" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="168"/>
-      <c r="G26" s="169" t="s">
+      <c r="F26" s="167"/>
+      <c r="G26" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="169" t="s">
+      <c r="H26" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
-      <c r="C27" s="180"/>
+      <c r="C27" s="179"/>
       <c r="D27" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="181" t="s">
+      <c r="E27" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168" t="s">
+      <c r="F27" s="167"/>
+      <c r="G27" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="168" t="s">
+      <c r="H27" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:10" ht="31.5">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="180"/>
+      <c r="C28" s="179"/>
       <c r="D28" s="154"/>
-      <c r="E28" s="181" t="s">
+      <c r="E28" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169" t="s">
+      <c r="F28" s="167"/>
+      <c r="G28" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="H28" s="169" t="s">
+      <c r="H28" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="55"/>
@@ -47008,11 +47097,11 @@
       <c r="E29" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="55"/>
@@ -47022,11 +47111,11 @@
       <c r="E30" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="39"/>
@@ -47071,7 +47160,7 @@
         <v>137</v>
       </c>
       <c r="G34" s="129" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H34" s="129" t="s">
         <v>138</v>
@@ -47091,315 +47180,315 @@
       <c r="B35" s="127">
         <v>1</v>
       </c>
-      <c r="C35" s="171"/>
+      <c r="C35" s="170"/>
       <c r="D35" s="140"/>
       <c r="E35" s="139" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="132" t="s">
-        <v>408</v>
-      </c>
-      <c r="G35" s="173" t="s">
-        <v>413</v>
-      </c>
-      <c r="H35" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="G35" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="H35" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="172" t="s">
+      <c r="I35" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
     </row>
     <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="127"/>
       <c r="B36" s="127"/>
-      <c r="C36" s="171"/>
+      <c r="C36" s="170"/>
       <c r="D36" s="140"/>
       <c r="E36" s="139" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G36" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H36" s="174" t="s">
+        <v>412</v>
+      </c>
+      <c r="H36" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="I36" s="174" t="s">
+      <c r="I36" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
     </row>
     <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="127"/>
       <c r="B37" s="127"/>
-      <c r="C37" s="171"/>
+      <c r="C37" s="170"/>
       <c r="D37" s="142"/>
       <c r="E37" s="143" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G37" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="H37" s="174" t="s">
+        <v>413</v>
+      </c>
+      <c r="H37" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="174" t="s">
+      <c r="I37" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
     </row>
     <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="127"/>
       <c r="B38" s="127"/>
-      <c r="C38" s="171"/>
+      <c r="C38" s="170"/>
       <c r="D38" s="140"/>
       <c r="E38" s="139" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="132" t="s">
-        <v>408</v>
-      </c>
-      <c r="G38" s="173" t="s">
+        <v>406</v>
+      </c>
+      <c r="G38" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="174" t="s">
+      <c r="H38" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="I38" s="174" t="s">
+      <c r="I38" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
     </row>
     <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="127"/>
       <c r="B39" s="127"/>
-      <c r="C39" s="171"/>
+      <c r="C39" s="170"/>
       <c r="D39" s="146"/>
-      <c r="E39" s="184" t="s">
+      <c r="E39" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="175"/>
-      <c r="G39" s="175"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="170"/>
     </row>
     <row r="40" spans="1:11" ht="45">
       <c r="A40" s="127"/>
       <c r="B40" s="127">
         <v>2</v>
       </c>
-      <c r="C40" s="171"/>
+      <c r="C40" s="170"/>
       <c r="D40" s="140"/>
       <c r="E40" s="139" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="132" t="s">
-        <v>408</v>
-      </c>
-      <c r="G40" s="173" t="s">
-        <v>417</v>
-      </c>
-      <c r="H40" s="174" t="s">
+        <v>406</v>
+      </c>
+      <c r="G40" s="172" t="s">
+        <v>415</v>
+      </c>
+      <c r="H40" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="I40" s="174" t="s">
+      <c r="I40" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
     </row>
     <row r="41" spans="1:11" ht="45">
       <c r="A41" s="127"/>
       <c r="B41" s="127"/>
-      <c r="C41" s="171"/>
+      <c r="C41" s="170"/>
       <c r="D41" s="144"/>
       <c r="E41" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="212" t="s">
-        <v>449</v>
+      <c r="F41" s="211" t="s">
+        <v>447</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="177" t="s">
+      <c r="H41" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="I41" s="177" t="s">
+      <c r="I41" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
     </row>
     <row r="42" spans="1:11" ht="15.75">
       <c r="A42" s="127"/>
       <c r="B42" s="127">
         <v>3</v>
       </c>
-      <c r="C42" s="171"/>
+      <c r="C42" s="170"/>
       <c r="D42" s="144"/>
       <c r="E42" s="145" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G42" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="177" t="s">
+      <c r="H42" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="177" t="s">
+      <c r="I42" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="170"/>
     </row>
     <row r="43" spans="1:11" ht="30">
       <c r="A43" s="127"/>
       <c r="B43" s="127"/>
-      <c r="C43" s="171"/>
+      <c r="C43" s="170"/>
       <c r="D43" s="144"/>
       <c r="E43" s="145" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="135" t="s">
-        <v>408</v>
-      </c>
-      <c r="G43" s="173" t="s">
-        <v>418</v>
-      </c>
-      <c r="H43" s="177" t="s">
+        <v>406</v>
+      </c>
+      <c r="G43" s="172" t="s">
+        <v>416</v>
+      </c>
+      <c r="H43" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I43" s="177" t="s">
+      <c r="I43" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
     </row>
     <row r="44" spans="1:11" ht="15.75">
       <c r="A44" s="127"/>
       <c r="B44" s="127"/>
-      <c r="C44" s="171"/>
+      <c r="C44" s="170"/>
       <c r="D44" s="144"/>
       <c r="E44" s="145" t="s">
         <v>27</v>
       </c>
       <c r="F44" s="135" t="s">
-        <v>408</v>
-      </c>
-      <c r="G44" s="173" t="s">
+        <v>406</v>
+      </c>
+      <c r="G44" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="177" t="s">
+      <c r="H44" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="177" t="s">
+      <c r="I44" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-    </row>
-    <row r="45" spans="1:11" ht="60">
+      <c r="J44" s="170"/>
+      <c r="K44" s="170"/>
+    </row>
+    <row r="45" spans="1:11" ht="45">
       <c r="A45" s="127"/>
       <c r="B45" s="127"/>
-      <c r="C45" s="171"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="144"/>
       <c r="E45" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="212" t="s">
-        <v>450</v>
-      </c>
-      <c r="G45" s="212" t="s">
-        <v>455</v>
-      </c>
-      <c r="H45" s="177" t="s">
+      <c r="F45" s="211" t="s">
+        <v>448</v>
+      </c>
+      <c r="G45" s="211" t="s">
+        <v>453</v>
+      </c>
+      <c r="H45" s="176" t="s">
         <v>152</v>
       </c>
-      <c r="I45" s="177" t="s">
+      <c r="I45" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
     </row>
     <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="127"/>
       <c r="B46" s="127">
         <v>4</v>
       </c>
-      <c r="C46" s="171"/>
+      <c r="C46" s="170"/>
       <c r="D46" s="146"/>
       <c r="E46" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
     </row>
     <row r="47" spans="1:11" ht="31.5">
       <c r="A47" s="127"/>
       <c r="B47" s="127">
         <v>5</v>
       </c>
-      <c r="C47" s="171"/>
+      <c r="C47" s="170"/>
       <c r="D47" s="146"/>
       <c r="E47" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
+      <c r="F47" s="177"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="177"/>
+      <c r="I47" s="177"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="170"/>
     </row>
     <row r="48" spans="1:11" ht="31.5">
       <c r="A48" s="127"/>
       <c r="B48" s="127"/>
-      <c r="C48" s="171"/>
+      <c r="C48" s="170"/>
       <c r="D48" s="146"/>
       <c r="E48" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="171"/>
-      <c r="K48" s="171"/>
+      <c r="F48" s="177"/>
+      <c r="G48" s="177"/>
+      <c r="H48" s="177"/>
+      <c r="I48" s="177"/>
+      <c r="J48" s="170"/>
+      <c r="K48" s="170"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="127"/>
       <c r="B49" s="127"/>
-      <c r="C49" s="171"/>
+      <c r="C49" s="170"/>
       <c r="D49" s="146"/>
       <c r="E49" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
+      <c r="F49" s="177"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="177"/>
+      <c r="J49" s="170"/>
+      <c r="K49" s="170"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickBot="1">
       <c r="A50" s="12"/>
@@ -47993,26 +48082,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185"/>
+      <c r="C2" s="184"/>
       <c r="D2" s="125" t="s">
         <v>102</v>
       </c>
@@ -48039,97 +48128,97 @@
       <c r="A3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="186">
+      <c r="B3" s="185">
         <v>1</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="186" t="s">
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
     </row>
     <row r="4" spans="1:11" ht="60">
       <c r="A4" s="55"/>
-      <c r="B4" s="186">
+      <c r="B4" s="185">
         <v>2</v>
       </c>
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="186" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="187" t="s">
+      <c r="D4" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="186" t="s">
+      <c r="E4" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189" t="s">
+      <c r="F4" s="187"/>
+      <c r="G4" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="190" t="s">
+      <c r="H4" s="189" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="189" t="s">
+      <c r="I4" s="188" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="188" t="s">
+      <c r="J4" s="187" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187" t="s">
+      <c r="B5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="186" t="s">
+      <c r="E5" s="185" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188" t="s">
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="55"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="186" t="s">
+      <c r="B6" s="185"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55"/>
-      <c r="B7" s="186">
+      <c r="B7" s="185">
         <v>3</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187" t="s">
+      <c r="C7" s="186"/>
+      <c r="D7" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="186" t="s">
+      <c r="E7" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
     </row>
     <row r="9" spans="1:11" ht="30">
       <c r="A9" s="127" t="s">
@@ -48149,7 +48238,7 @@
         <v>137</v>
       </c>
       <c r="G9" s="129" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H9" s="129" t="s">
         <v>138</v>
@@ -48169,253 +48258,253 @@
       <c r="B10" s="127">
         <v>1</v>
       </c>
-      <c r="C10" s="171"/>
+      <c r="C10" s="170"/>
       <c r="D10" s="140"/>
       <c r="E10" s="139" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>408</v>
-      </c>
-      <c r="G10" s="173" t="s">
-        <v>413</v>
-      </c>
-      <c r="H10" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="G10" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="H10" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="172" t="s">
+      <c r="I10" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
     </row>
     <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="127"/>
       <c r="B11" s="127"/>
-      <c r="C11" s="171"/>
+      <c r="C11" s="170"/>
       <c r="D11" s="144"/>
       <c r="E11" s="145" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H11" s="177" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="177" t="s">
+      <c r="I11" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
     </row>
     <row r="12" spans="1:11" ht="45">
       <c r="A12" s="127"/>
       <c r="B12" s="127"/>
-      <c r="C12" s="171"/>
+      <c r="C12" s="170"/>
       <c r="D12" s="144"/>
       <c r="E12" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="212" t="s">
-        <v>449</v>
+      <c r="F12" s="211" t="s">
+        <v>447</v>
       </c>
       <c r="G12" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="H12" s="177" t="s">
+        <v>413</v>
+      </c>
+      <c r="H12" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="177" t="s">
+      <c r="I12" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="182" t="s">
+      <c r="J12" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="171"/>
+      <c r="K12" s="170"/>
     </row>
     <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="127"/>
       <c r="B13" s="127"/>
-      <c r="C13" s="171"/>
+      <c r="C13" s="170"/>
       <c r="D13" s="144"/>
       <c r="E13" s="145" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>408</v>
-      </c>
-      <c r="G13" s="173" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="177" t="s">
+      <c r="H13" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="177" t="s">
+      <c r="I13" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
     </row>
     <row r="14" spans="1:11" ht="30">
       <c r="A14" s="127"/>
       <c r="B14" s="127">
         <v>2</v>
       </c>
-      <c r="C14" s="171"/>
+      <c r="C14" s="170"/>
       <c r="D14" s="144"/>
       <c r="E14" s="145" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>408</v>
-      </c>
-      <c r="G14" s="173" t="s">
-        <v>417</v>
-      </c>
-      <c r="H14" s="177" t="s">
+        <v>406</v>
+      </c>
+      <c r="G14" s="172" t="s">
+        <v>415</v>
+      </c>
+      <c r="H14" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="177" t="s">
+      <c r="I14" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
     </row>
     <row r="15" spans="1:11" ht="45">
       <c r="A15" s="127"/>
       <c r="B15" s="127"/>
-      <c r="C15" s="171"/>
+      <c r="C15" s="170"/>
       <c r="D15" s="144"/>
       <c r="E15" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="212" t="s">
-        <v>449</v>
+      <c r="F15" s="211" t="s">
+        <v>447</v>
       </c>
       <c r="G15" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="177" t="s">
+      <c r="H15" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="177" t="s">
+      <c r="I15" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
     </row>
     <row r="16" spans="1:11" ht="31.5">
       <c r="A16" s="127"/>
       <c r="B16" s="127">
         <v>3</v>
       </c>
-      <c r="C16" s="171"/>
+      <c r="C16" s="170"/>
       <c r="D16" s="144"/>
       <c r="E16" s="145" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G16" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="177" t="s">
+      <c r="H16" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="177" t="s">
+      <c r="I16" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
     </row>
     <row r="17" spans="1:11" ht="30">
       <c r="A17" s="127"/>
       <c r="B17" s="127"/>
-      <c r="C17" s="171"/>
+      <c r="C17" s="170"/>
       <c r="D17" s="144"/>
       <c r="E17" s="145" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="135" t="s">
-        <v>408</v>
-      </c>
-      <c r="G17" s="173" t="s">
-        <v>418</v>
-      </c>
-      <c r="H17" s="177" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" s="172" t="s">
+        <v>416</v>
+      </c>
+      <c r="H17" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="177" t="s">
+      <c r="I17" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="127"/>
       <c r="B18" s="127"/>
-      <c r="C18" s="171"/>
+      <c r="C18" s="170"/>
       <c r="D18" s="144"/>
       <c r="E18" s="145" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="135" t="s">
-        <v>408</v>
-      </c>
-      <c r="G18" s="173" t="s">
+        <v>406</v>
+      </c>
+      <c r="G18" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="177" t="s">
+      <c r="H18" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="177" t="s">
+      <c r="I18" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
     </row>
     <row r="19" spans="1:11" ht="31.5">
       <c r="A19" s="127"/>
       <c r="B19" s="127">
         <v>4</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="183" t="s">
+      <c r="C19" s="170"/>
+      <c r="D19" s="182" t="s">
         <v>163</v>
       </c>
       <c r="E19" s="157" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="172" t="s">
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="171"/>
+      <c r="K19" s="170"/>
     </row>
     <row r="20" spans="1:11" ht="63">
       <c r="A20" s="127"/>
       <c r="B20" s="127"/>
-      <c r="C20" s="171"/>
+      <c r="C20" s="170"/>
       <c r="D20" s="156" t="s">
         <v>163</v>
       </c>
       <c r="E20" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="171"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="170"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickBot="1">
       <c r="A21" s="17"/>
@@ -49007,573 +49096,573 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="217" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
     </row>
     <row r="2" spans="1:10" ht="36">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="164" t="s">
+      <c r="E2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="164" t="s">
+      <c r="G2" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="164" t="s">
+      <c r="H2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="164" t="s">
+      <c r="I2" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="164" t="s">
+      <c r="J2" s="163" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="165">
+      <c r="B3" s="164">
         <v>1</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="165"/>
-      <c r="B4" s="165">
+      <c r="A4" s="164"/>
+      <c r="B4" s="164">
         <v>2</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191" t="s">
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165">
+      <c r="A5" s="164"/>
+      <c r="B5" s="164">
         <v>3</v>
       </c>
-      <c r="C5" s="192">
+      <c r="C5" s="191">
         <v>2019</v>
       </c>
-      <c r="D5" s="191" t="s">
+      <c r="D5" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="193" t="s">
+      <c r="E5" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H5" s="166" t="s">
+      <c r="H5" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
     </row>
     <row r="6" spans="1:10" ht="37.5">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="193" t="s">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="166"/>
-      <c r="G6" s="167" t="s">
+      <c r="F6" s="165"/>
+      <c r="G6" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="167" t="s">
+      <c r="H6" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
     </row>
     <row r="7" spans="1:10" ht="18.75">
-      <c r="A7" s="165"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="191" t="s">
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="190" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="193" t="s">
+      <c r="E7" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166" t="s">
+      <c r="F7" s="165"/>
+      <c r="G7" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
     </row>
     <row r="8" spans="1:10" ht="37.5">
-      <c r="A8" s="165"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="193" t="s">
+      <c r="A8" s="164"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167" t="s">
+      <c r="F8" s="165"/>
+      <c r="G8" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="167" t="s">
+      <c r="H8" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
     </row>
     <row r="9" spans="1:10" ht="18.75">
-      <c r="A9" s="165"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="191" t="s">
+      <c r="A9" s="164"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="193" t="s">
+      <c r="E9" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166" t="s">
+      <c r="F9" s="165"/>
+      <c r="G9" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="166" t="s">
+      <c r="H9" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="1:10" ht="37.5">
-      <c r="A10" s="165"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="193" t="s">
+      <c r="A10" s="164"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="166"/>
-      <c r="G10" s="167" t="s">
+      <c r="F10" s="165"/>
+      <c r="G10" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H10" s="167" t="s">
+      <c r="H10" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:10" ht="18.75">
-      <c r="A11" s="165"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="191" t="s">
+      <c r="A11" s="164"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="193" t="s">
+      <c r="E11" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166" t="s">
+      <c r="F11" s="165"/>
+      <c r="G11" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="166" t="s">
+      <c r="H11" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
     </row>
     <row r="12" spans="1:10" ht="37.5">
-      <c r="A12" s="165"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="193" t="s">
+      <c r="A12" s="164"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="166"/>
-      <c r="G12" s="167" t="s">
+      <c r="F12" s="165"/>
+      <c r="G12" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="167" t="s">
+      <c r="H12" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="165"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="191" t="s">
+      <c r="A13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="190" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="193" t="s">
+      <c r="E13" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166" t="s">
+      <c r="F13" s="165"/>
+      <c r="G13" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H13" s="166" t="s">
+      <c r="H13" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
     </row>
     <row r="14" spans="1:10" ht="37.5">
-      <c r="A14" s="165"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="193" t="s">
+      <c r="A14" s="164"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="166"/>
-      <c r="G14" s="167" t="s">
+      <c r="F14" s="165"/>
+      <c r="G14" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="167" t="s">
+      <c r="H14" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
     </row>
     <row r="15" spans="1:10" ht="18.75">
-      <c r="A15" s="165"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="191" t="s">
+      <c r="A15" s="164"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="193" t="s">
+      <c r="E15" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166" t="s">
+      <c r="F15" s="165"/>
+      <c r="G15" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="166" t="s">
+      <c r="H15" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:10" ht="37.5">
-      <c r="A16" s="165"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="193" t="s">
+      <c r="A16" s="164"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="166"/>
-      <c r="G16" s="167" t="s">
+      <c r="F16" s="165"/>
+      <c r="G16" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="167" t="s">
+      <c r="H16" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
     </row>
     <row r="17" spans="1:10" ht="18.75">
-      <c r="A17" s="165"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="191" t="s">
+      <c r="A17" s="164"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="193" t="s">
+      <c r="E17" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166" t="s">
+      <c r="F17" s="165"/>
+      <c r="G17" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="166" t="s">
+      <c r="H17" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
     </row>
     <row r="18" spans="1:10" ht="37.5">
-      <c r="A18" s="165"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="193" t="s">
+      <c r="A18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="166"/>
-      <c r="G18" s="167" t="s">
+      <c r="F18" s="165"/>
+      <c r="G18" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="167" t="s">
+      <c r="H18" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
     </row>
     <row r="19" spans="1:10" ht="18.75">
-      <c r="A19" s="165"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="191" t="s">
+      <c r="A19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="193" t="s">
+      <c r="E19" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166" t="s">
+      <c r="F19" s="165"/>
+      <c r="G19" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H19" s="166" t="s">
+      <c r="H19" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="37.5">
-      <c r="A20" s="165"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="193" t="s">
+      <c r="A20" s="164"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="166"/>
-      <c r="G20" s="167" t="s">
+      <c r="F20" s="165"/>
+      <c r="G20" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H20" s="167" t="s">
+      <c r="H20" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:10" ht="18.75">
-      <c r="A21" s="165"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="191" t="s">
+      <c r="A21" s="164"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="193" t="s">
+      <c r="E21" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166" t="s">
+      <c r="F21" s="165"/>
+      <c r="G21" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H21" s="166" t="s">
+      <c r="H21" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" ht="37.5">
-      <c r="A22" s="165"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="193" t="s">
+      <c r="A22" s="164"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="166"/>
-      <c r="G22" s="167" t="s">
+      <c r="F22" s="165"/>
+      <c r="G22" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H22" s="167" t="s">
+      <c r="H22" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="165"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="191" t="s">
+      <c r="A23" s="164"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="190" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="193" t="s">
+      <c r="E23" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166" t="s">
+      <c r="F23" s="165"/>
+      <c r="G23" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H23" s="166" t="s">
+      <c r="H23" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" ht="37.5">
-      <c r="A24" s="165"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="193" t="s">
+      <c r="A24" s="164"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="166"/>
-      <c r="G24" s="167" t="s">
+      <c r="F24" s="165"/>
+      <c r="G24" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H24" s="167" t="s">
+      <c r="H24" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" ht="18.75">
-      <c r="A25" s="165"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="191" t="s">
+      <c r="A25" s="164"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="193" t="s">
+      <c r="E25" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166" t="s">
+      <c r="F25" s="165"/>
+      <c r="G25" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H25" s="166" t="s">
+      <c r="H25" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:10" ht="37.5">
-      <c r="A26" s="165"/>
-      <c r="B26" s="165"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="193" t="s">
+      <c r="A26" s="164"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="166"/>
-      <c r="G26" s="167" t="s">
+      <c r="F26" s="165"/>
+      <c r="G26" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="167" t="s">
+      <c r="H26" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I26" s="166"/>
-      <c r="J26" s="166"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="18.75">
-      <c r="A27" s="165"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="191" t="s">
+      <c r="A27" s="164"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="193" t="s">
+      <c r="E27" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166" t="s">
+      <c r="F27" s="165"/>
+      <c r="G27" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="166" t="s">
+      <c r="H27" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="37.5">
-      <c r="A28" s="165"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="193" t="s">
+      <c r="A28" s="164"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167" t="s">
+      <c r="F28" s="165"/>
+      <c r="G28" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H28" s="167" t="s">
+      <c r="H28" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="165"/>
-      <c r="B29" s="165">
+      <c r="A29" s="164"/>
+      <c r="B29" s="164">
         <v>4</v>
       </c>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191" t="s">
+      <c r="C29" s="190"/>
+      <c r="D29" s="190" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="191" t="s">
+      <c r="E29" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="165"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191" t="s">
+      <c r="A30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="39"/>
@@ -49618,7 +49707,7 @@
         <v>137</v>
       </c>
       <c r="G34" s="129" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H34" s="129" t="s">
         <v>138</v>
@@ -49644,10 +49733,10 @@
         <v>18</v>
       </c>
       <c r="F35" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G35" s="127" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H35" s="127" t="s">
         <v>142</v>
@@ -49667,10 +49756,10 @@
         <v>19</v>
       </c>
       <c r="F36" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G36" s="132" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H36" s="135" t="s">
         <v>142</v>
@@ -49689,11 +49778,11 @@
       <c r="E37" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="212" t="s">
-        <v>449</v>
+      <c r="F37" s="211" t="s">
+        <v>447</v>
       </c>
       <c r="G37" s="132" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H37" s="135" t="s">
         <v>156</v>
@@ -49715,7 +49804,7 @@
         <v>21</v>
       </c>
       <c r="F38" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G38" s="127" t="s">
         <v>21</v>
@@ -49740,10 +49829,10 @@
         <v>23</v>
       </c>
       <c r="F39" s="132" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G39" s="127" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H39" s="135" t="s">
         <v>142</v>
@@ -49762,8 +49851,8 @@
       <c r="E40" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="212" t="s">
-        <v>449</v>
+      <c r="F40" s="211" t="s">
+        <v>447</v>
       </c>
       <c r="G40" s="132" t="s">
         <v>24</v>
@@ -49788,7 +49877,7 @@
         <v>25</v>
       </c>
       <c r="F41" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>25</v>
@@ -49811,10 +49900,10 @@
         <v>26</v>
       </c>
       <c r="F42" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G42" s="127" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H42" s="135" t="s">
         <v>142</v>
@@ -49834,7 +49923,7 @@
         <v>27</v>
       </c>
       <c r="F43" s="135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G43" s="127" t="s">
         <v>27</v>
@@ -49858,11 +49947,11 @@
       <c r="E44" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="212" t="s">
-        <v>451</v>
-      </c>
-      <c r="G44" s="179" t="s">
-        <v>452</v>
+      <c r="F44" s="211" t="s">
+        <v>449</v>
+      </c>
+      <c r="G44" s="178" t="s">
+        <v>450</v>
       </c>
       <c r="H44" s="135" t="s">
         <v>265</v>
@@ -50473,6 +50562,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E02C194182EFF844B6EA2A0EA5B68C8E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53a1465ce78b936df409f0a6a902274c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09c4b621-4f79-4326-906f-0593de0a6512" xmlns:ns3="df1cb08e-cec6-421c-8a84-fcf2487913a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22291725b0ea22060fac57adaf9bb5a7" ns2:_="" ns3:_="">
     <xsd:import namespace="09c4b621-4f79-4326-906f-0593de0a6512"/>
@@ -50689,12 +50784,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710E3631-F1BD-452D-B404-73BC4434F1AB}">
   <ds:schemaRefs>
@@ -50704,6 +50793,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E712F6DD-E959-4D99-B007-2254DF5DD989}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0745304-B3A2-48AE-9941-5BB8EE1A5B27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50720,13 +50818,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E712F6DD-E959-4D99-B007-2254DF5DD989}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Design-Phase-Reports-Columns Latest(ikhwan)210204.xlsx
+++ b/Design-Phase-Reports-Columns Latest(ikhwan)210204.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="20" r:id="rId1"/>
@@ -1747,7 +1747,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="463">
   <si>
     <t>Level</t>
   </si>
@@ -2482,9 +2482,6 @@
   </si>
   <si>
     <t>1 st Level</t>
-  </si>
-  <si>
-    <t>unifier_uxjdpla_view</t>
   </si>
   <si>
     <t>1. unifier_uxjdpla_view
@@ -3271,6 +3268,14 @@
 c. Verifikasi RB Teperincini
 d. Verifikasi RB Teperincini - Perunding</t>
   </si>
+  <si>
+    <t>1. Pelan Kualiti Reka Bentuk (D-Plan)
+2. Pelan Kualiti Reka Bentuk (D-Plan)</t>
+  </si>
+  <si>
+    <t>1. Pelan Kualiti Reka Bentuk (D-Plan)
+2. Verifikasi RB Teperincini</t>
+  </si>
 </sst>
 </file>
 
@@ -4000,7 +4005,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4400,9 +4405,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4565,11 +4567,25 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4582,20 +4598,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -40095,34 +40097,34 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="93" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="116" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="116" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="B6" s="95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" s="95"/>
       <c r="D6" s="95" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I6" s="117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -40138,7 +40140,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="96">
         <v>44151</v>
@@ -40150,7 +40152,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -40165,7 +40167,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="95" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" s="96">
         <v>44172</v>
@@ -40177,7 +40179,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -40192,7 +40194,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B9" s="96">
         <v>44186</v>
@@ -40204,7 +40206,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -40219,7 +40221,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" s="96">
         <v>44207</v>
@@ -40242,7 +40244,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="95" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" s="96">
         <v>44237</v>
@@ -40253,7 +40255,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="95" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="96">
         <v>44158</v>
@@ -40264,17 +40266,17 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="95" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="97" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="97" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -40289,33 +40291,33 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="B20" s="73" t="s">
-        <v>269</v>
-      </c>
       <c r="D20" s="95" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="95" t="s">
         <v>368</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="F20" s="95" t="s">
         <v>369</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>370</v>
       </c>
       <c r="G20" s="73"/>
       <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="98" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="99"/>
       <c r="C21" s="100">
         <v>17</v>
       </c>
       <c r="D21" s="101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E21" s="101">
         <v>17</v>
@@ -40325,56 +40327,56 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="103" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" s="99">
         <v>3</v>
       </c>
       <c r="C22" s="104"/>
       <c r="D22" s="94" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G22" s="103"/>
       <c r="H22" s="99"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B23" s="99">
         <v>9</v>
       </c>
       <c r="C23" s="104"/>
       <c r="D23" s="94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G23" s="103"/>
       <c r="H23" s="99"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" s="99">
         <v>5</v>
       </c>
       <c r="C24" s="104"/>
       <c r="D24" s="94" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G24" s="102"/>
       <c r="H24" s="99"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="99"/>
       <c r="C25" s="105">
         <v>12</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E25" s="94">
         <v>12</v>
@@ -40384,42 +40386,42 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="103" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="99">
         <v>3</v>
       </c>
       <c r="C26" s="104"/>
       <c r="D26" s="94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G26" s="103"/>
       <c r="H26" s="99"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="99">
         <v>9</v>
       </c>
       <c r="C27" s="104"/>
       <c r="D27" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G27" s="102"/>
       <c r="H27" s="99"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B28" s="99"/>
       <c r="C28" s="100">
         <v>19</v>
       </c>
       <c r="D28" s="101" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E28" s="101">
         <v>19</v>
@@ -40429,35 +40431,35 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="103" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="99">
         <v>7</v>
       </c>
       <c r="C29" s="104"/>
       <c r="D29" s="94" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G29" s="102"/>
       <c r="H29" s="99"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B30" s="99">
         <v>10</v>
       </c>
       <c r="C30" s="104"/>
       <c r="D30" s="94" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G30" s="103"/>
       <c r="H30" s="99"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B31" s="99">
         <v>2</v>
@@ -40468,14 +40470,14 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="99"/>
       <c r="C32" s="100">
         <v>29</v>
       </c>
       <c r="D32" s="101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E32" s="101">
         <v>27</v>
@@ -40488,7 +40490,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="103" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" s="99">
         <v>2</v>
@@ -40503,7 +40505,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B34" s="99">
         <v>27</v>
@@ -40512,14 +40514,14 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="99"/>
       <c r="C35" s="105">
         <v>20</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E35" s="94">
         <v>18</v>
@@ -40530,7 +40532,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="103" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B36" s="99">
         <v>1</v>
@@ -40538,7 +40540,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B37" s="99">
         <v>19</v>
@@ -40549,7 +40551,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="99">
         <v>97</v>
@@ -40573,15 +40575,15 @@
       <c r="D40" s="95"/>
       <c r="E40" s="95"/>
       <c r="J40" s="108" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L40" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="109" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B41" s="110"/>
       <c r="C41" s="110"/>
@@ -40592,19 +40594,19 @@
       <c r="H41" s="111"/>
       <c r="I41" s="110"/>
       <c r="J41" s="112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K41" s="110"/>
       <c r="L41" s="94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P41" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="109" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B42" s="110"/>
       <c r="C42" s="110"/>
@@ -40615,19 +40617,19 @@
       <c r="H42" s="113"/>
       <c r="I42" s="110"/>
       <c r="J42" s="112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K42" s="110"/>
       <c r="L42" s="94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P42" s="94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="109" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B43" s="110"/>
       <c r="C43" s="110"/>
@@ -40638,19 +40640,19 @@
       <c r="H43" s="113"/>
       <c r="I43" s="110"/>
       <c r="J43" s="112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K43" s="110"/>
       <c r="L43" s="94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P43" s="94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B44" s="110"/>
       <c r="C44" s="110"/>
@@ -40661,19 +40663,19 @@
       <c r="H44" s="113"/>
       <c r="I44" s="110"/>
       <c r="J44" s="112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K44" s="110"/>
       <c r="L44" s="94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P44" s="94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B45" s="110"/>
       <c r="C45" s="110"/>
@@ -40684,19 +40686,19 @@
       <c r="H45" s="113"/>
       <c r="I45" s="110"/>
       <c r="J45" s="112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K45" s="110"/>
       <c r="L45" s="94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P45" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="109" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B46" s="110"/>
       <c r="C46" s="110"/>
@@ -40707,14 +40709,14 @@
       <c r="H46" s="113"/>
       <c r="I46" s="110"/>
       <c r="J46" s="112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K46" s="110"/>
       <c r="L46" s="94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P46" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -40724,7 +40726,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B48" s="110"/>
       <c r="C48" s="113"/>
@@ -40735,20 +40737,20 @@
       <c r="H48" s="110"/>
       <c r="I48" s="110"/>
       <c r="J48" s="112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K48" s="110"/>
       <c r="L48" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N48" s="110"/>
       <c r="P48" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="109" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" s="110"/>
       <c r="C49" s="111"/>
@@ -40759,20 +40761,20 @@
       <c r="H49" s="110"/>
       <c r="I49" s="110"/>
       <c r="J49" s="112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K49" s="110"/>
       <c r="L49" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N49" s="110"/>
       <c r="P49" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="109" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" s="110"/>
       <c r="C50" s="113"/>
@@ -40783,20 +40785,20 @@
       <c r="H50" s="110"/>
       <c r="I50" s="110"/>
       <c r="J50" s="112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K50" s="110"/>
       <c r="L50" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N50" s="110"/>
       <c r="P50" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="115" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" s="110"/>
       <c r="C51" s="113"/>
@@ -40807,20 +40809,20 @@
       <c r="H51" s="110"/>
       <c r="I51" s="110"/>
       <c r="J51" s="112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K51" s="110"/>
       <c r="L51" s="94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N51" s="110"/>
       <c r="P51" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="109" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B52" s="110"/>
       <c r="C52" s="113"/>
@@ -40831,15 +40833,15 @@
       <c r="H52" s="110"/>
       <c r="I52" s="110"/>
       <c r="J52" s="112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K52" s="110"/>
       <c r="L52" s="94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N52" s="110"/>
       <c r="P52" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -40850,70 +40852,70 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C54" s="114"/>
       <c r="D54" s="114"/>
       <c r="E54" s="114"/>
       <c r="J54" s="112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L54" s="94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P54" s="94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="109" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C55" s="114"/>
       <c r="D55" s="114"/>
       <c r="E55" s="114"/>
       <c r="J55" s="112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L55" s="94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P55" s="94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="109" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C56" s="114"/>
       <c r="D56" s="114"/>
       <c r="E56" s="114"/>
       <c r="J56" s="112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L56" s="94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P56" s="94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C57" s="114"/>
       <c r="D57" s="114"/>
       <c r="E57" s="114"/>
       <c r="J57" s="112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L57" s="94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P57" s="94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -40976,16 +40978,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="218" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
+      <c r="A1" s="223" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="123" t="s">
@@ -41013,7 +41015,7 @@
         <v>139</v>
       </c>
       <c r="I2" s="124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="75">
@@ -41030,7 +41032,7 @@
       <c r="E3" s="126"/>
       <c r="F3" s="126"/>
       <c r="G3" s="55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="126"/>
       <c r="I3" s="126"/>
@@ -41041,18 +41043,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="126"/>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="179" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="178" t="s">
+      <c r="E4" s="177" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="177" t="s">
         <v>431</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="G4" s="193"/>
+      <c r="H4" s="193" t="s">
         <v>432</v>
-      </c>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194" t="s">
-        <v>433</v>
       </c>
       <c r="I4" s="126"/>
     </row>
@@ -41079,7 +41081,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G6" s="129" t="s">
         <v>138</v>
@@ -41091,7 +41093,7 @@
         <v>139</v>
       </c>
       <c r="J6" s="129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
@@ -41104,10 +41106,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G7" s="127" t="s">
         <v>142</v>
@@ -41126,12 +41128,12 @@
         <v>19</v>
       </c>
       <c r="E8" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>412</v>
-      </c>
-      <c r="G8" s="194" t="s">
+        <v>411</v>
+      </c>
+      <c r="G8" s="193" t="s">
         <v>142</v>
       </c>
       <c r="H8" s="132" t="s">
@@ -41147,17 +41149,17 @@
       <c r="D9" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="194" t="s">
-        <v>406</v>
+      <c r="E9" s="193" t="s">
+        <v>405</v>
       </c>
       <c r="F9" s="135" t="s">
-        <v>435</v>
-      </c>
-      <c r="G9" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G9" s="193" t="s">
         <v>142</v>
       </c>
       <c r="H9" s="135" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I9" s="132"/>
       <c r="J9" s="132"/>
@@ -41169,17 +41171,17 @@
       <c r="D10" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="211" t="s">
+      <c r="E10" s="210" t="s">
+        <v>450</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="210" t="s">
         <v>451</v>
       </c>
-      <c r="F10" s="132" t="s">
-        <v>426</v>
-      </c>
-      <c r="G10" s="211" t="s">
-        <v>452</v>
-      </c>
       <c r="H10" s="132" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I10" s="132"/>
       <c r="J10" s="132"/>
@@ -41192,10 +41194,10 @@
         <v>141</v>
       </c>
       <c r="E11" s="135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G11" s="135" t="s">
         <v>142</v>
@@ -41216,7 +41218,7 @@
         <v>190</v>
       </c>
       <c r="E12" s="135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" s="127" t="s">
         <v>190</v>
@@ -41225,7 +41227,7 @@
         <v>142</v>
       </c>
       <c r="H12" s="135" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I12" s="132"/>
       <c r="J12" s="132"/>
@@ -41240,7 +41242,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F13" s="132" t="s">
         <v>25</v>
@@ -41262,16 +41264,16 @@
         <v>26</v>
       </c>
       <c r="E14" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F14" s="127" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G14" s="135" t="s">
         <v>142</v>
       </c>
       <c r="H14" s="135" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I14" s="132"/>
       <c r="J14" s="132"/>
@@ -41283,11 +41285,11 @@
       <c r="D15" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="211" t="s">
-        <v>448</v>
-      </c>
-      <c r="F15" s="211" t="s">
-        <v>453</v>
+      <c r="E15" s="210" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" s="210" t="s">
+        <v>452</v>
       </c>
       <c r="G15" s="135" t="s">
         <v>152</v>
@@ -41305,17 +41307,17 @@
       <c r="D16" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="212" t="s">
-        <v>406</v>
+      <c r="E16" s="211" t="s">
+        <v>405</v>
       </c>
       <c r="F16" s="132" t="s">
-        <v>429</v>
-      </c>
-      <c r="G16" s="212" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="211" t="s">
         <v>142</v>
       </c>
       <c r="H16" s="132" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I16" s="132"/>
       <c r="J16" s="132"/>
@@ -41357,7 +41359,7 @@
         <v>139</v>
       </c>
       <c r="I18" s="121" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -41568,18 +41570,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="219" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
+      <c r="A1" s="224" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="129" t="s">
@@ -41598,7 +41600,7 @@
         <v>137</v>
       </c>
       <c r="F2" s="129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G2" s="129" t="s">
         <v>138</v>
@@ -41610,7 +41612,7 @@
         <v>139</v>
       </c>
       <c r="J2" s="129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
@@ -41641,16 +41643,16 @@
         <v>186</v>
       </c>
       <c r="E4" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F4" s="127"/>
-      <c r="G4" s="200" t="s">
-        <v>446</v>
+      <c r="G4" s="199" t="s">
+        <v>445</v>
       </c>
       <c r="H4" s="127"/>
       <c r="I4" s="127"/>
       <c r="J4" s="127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63">
@@ -41681,20 +41683,20 @@
         <v>207</v>
       </c>
       <c r="E6" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>440</v>
-      </c>
-      <c r="G6" s="200" t="s">
-        <v>446</v>
+        <v>439</v>
+      </c>
+      <c r="G6" s="199" t="s">
+        <v>445</v>
       </c>
       <c r="H6" s="127" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I6" s="127"/>
       <c r="J6" s="127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
@@ -41707,20 +41709,20 @@
         <v>208</v>
       </c>
       <c r="E7" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>441</v>
-      </c>
-      <c r="G7" s="200" t="s">
-        <v>446</v>
+        <v>440</v>
+      </c>
+      <c r="G7" s="199" t="s">
+        <v>445</v>
       </c>
       <c r="H7" s="127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I7" s="127"/>
       <c r="J7" s="127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
@@ -41733,20 +41735,20 @@
         <v>209</v>
       </c>
       <c r="E8" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F8" s="127" t="s">
+        <v>444</v>
+      </c>
+      <c r="G8" s="199" t="s">
         <v>445</v>
       </c>
-      <c r="G8" s="200" t="s">
-        <v>446</v>
-      </c>
       <c r="H8" s="127" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I8" s="127"/>
       <c r="J8" s="127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
@@ -41759,20 +41761,20 @@
         <v>210</v>
       </c>
       <c r="E9" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>443</v>
-      </c>
-      <c r="G9" s="200" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+      <c r="G9" s="199" t="s">
+        <v>445</v>
       </c>
       <c r="H9" s="127" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I9" s="127"/>
       <c r="J9" s="127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="47.25">
@@ -41837,9 +41839,9 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="52"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="127" t="s">
@@ -41854,11 +41856,11 @@
       <c r="D15" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="195" t="s">
+      <c r="E15" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="195" t="s">
-        <v>400</v>
+      <c r="F15" s="194" t="s">
+        <v>399</v>
       </c>
       <c r="G15" s="129" t="s">
         <v>138</v>
@@ -41870,7 +41872,7 @@
         <v>139</v>
       </c>
       <c r="J15" s="129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
@@ -41883,10 +41885,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F16" s="127" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G16" s="127" t="s">
         <v>142</v>
@@ -41905,10 +41907,10 @@
         <v>19</v>
       </c>
       <c r="E17" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G17" s="132" t="s">
         <v>142</v>
@@ -41927,16 +41929,16 @@
         <v>188</v>
       </c>
       <c r="E18" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F18" s="135" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G18" s="132" t="s">
         <v>142</v>
       </c>
       <c r="H18" s="135" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I18" s="132"/>
       <c r="J18" s="132"/>
@@ -41948,17 +41950,17 @@
       <c r="D19" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="211" t="s">
+      <c r="E19" s="210" t="s">
+        <v>450</v>
+      </c>
+      <c r="F19" s="132" t="s">
+        <v>425</v>
+      </c>
+      <c r="G19" s="210" t="s">
         <v>451</v>
       </c>
-      <c r="F19" s="132" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" s="211" t="s">
-        <v>452</v>
-      </c>
       <c r="H19" s="132" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I19" s="132"/>
       <c r="J19" s="132"/>
@@ -41971,10 +41973,10 @@
         <v>141</v>
       </c>
       <c r="E20" s="135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F20" s="132" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G20" s="135" t="s">
         <v>142</v>
@@ -41993,7 +41995,7 @@
         <v>190</v>
       </c>
       <c r="E21" s="135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F21" s="127" t="s">
         <v>190</v>
@@ -42002,7 +42004,7 @@
         <v>142</v>
       </c>
       <c r="H21" s="135" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I21" s="132"/>
       <c r="J21" s="132"/>
@@ -42017,7 +42019,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F22" s="132" t="s">
         <v>25</v>
@@ -42039,16 +42041,16 @@
         <v>26</v>
       </c>
       <c r="E23" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F23" s="127" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G23" s="135" t="s">
         <v>142</v>
       </c>
       <c r="H23" s="135" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I23" s="132"/>
       <c r="J23" s="132"/>
@@ -42061,7 +42063,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F24" s="127" t="s">
         <v>27</v>
@@ -42084,17 +42086,17 @@
       <c r="D25" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="211" t="s">
-        <v>436</v>
+      <c r="E25" s="210" t="s">
+        <v>435</v>
       </c>
       <c r="F25" s="127" t="s">
-        <v>424</v>
-      </c>
-      <c r="G25" s="211" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G25" s="210" t="s">
+        <v>453</v>
       </c>
       <c r="H25" s="132" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I25" s="132"/>
       <c r="J25" s="132"/>
@@ -42112,7 +42114,7 @@
       <c r="H26" s="132"/>
       <c r="I26" s="132"/>
       <c r="J26" s="132" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="31.5">
@@ -42128,7 +42130,7 @@
       <c r="H27" s="132"/>
       <c r="I27" s="132"/>
       <c r="J27" s="132" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.5">
@@ -42144,7 +42146,7 @@
       <c r="H28" s="132"/>
       <c r="I28" s="132"/>
       <c r="J28" s="132" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="31.5">
@@ -42160,7 +42162,7 @@
       <c r="H29" s="132"/>
       <c r="I29" s="132"/>
       <c r="J29" s="132" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -42196,7 +42198,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -42236,7 +42238,7 @@
         <v>139</v>
       </c>
       <c r="J2" s="124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
@@ -42246,466 +42248,466 @@
       <c r="B3" s="126">
         <v>1</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160" t="s">
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="126"/>
       <c r="B4" s="126">
         <v>2</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="159" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="159" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="126"/>
       <c r="B5" s="126"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160" t="s">
+      <c r="C5" s="159"/>
+      <c r="D5" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="126"/>
       <c r="B6" s="126"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160" t="s">
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="126"/>
       <c r="B7" s="126"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="160" t="s">
+      <c r="E7" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="126"/>
       <c r="B8" s="126"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160" t="s">
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="126"/>
       <c r="B9" s="126"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160" t="s">
+      <c r="C9" s="159"/>
+      <c r="D9" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="126"/>
       <c r="B10" s="126"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160" t="s">
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="126"/>
       <c r="B11" s="126"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160" t="s">
+      <c r="C11" s="159"/>
+      <c r="D11" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="126"/>
       <c r="B12" s="126"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160" t="s">
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="126"/>
       <c r="B13" s="126"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160" t="s">
+      <c r="C13" s="159"/>
+      <c r="D13" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="160" t="s">
+      <c r="E13" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="126"/>
       <c r="B14" s="126"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160" t="s">
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="126"/>
       <c r="B15" s="126"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160" t="s">
+      <c r="C15" s="159"/>
+      <c r="D15" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="160" t="s">
+      <c r="E15" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="126"/>
       <c r="B16" s="126"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160" t="s">
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="126"/>
       <c r="B17" s="126"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160" t="s">
+      <c r="C17" s="159"/>
+      <c r="D17" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="160" t="s">
+      <c r="E17" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="126"/>
       <c r="B18" s="126"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160" t="s">
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="126"/>
       <c r="B19" s="126"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160" t="s">
+      <c r="C19" s="159"/>
+      <c r="D19" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="160" t="s">
+      <c r="E19" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="126"/>
       <c r="B20" s="126"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160" t="s">
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="126"/>
       <c r="B21" s="126"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160" t="s">
+      <c r="C21" s="159"/>
+      <c r="D21" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="160" t="s">
+      <c r="E21" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="126"/>
       <c r="B22" s="126"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160" t="s">
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="126"/>
       <c r="B23" s="126"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160" t="s">
+      <c r="C23" s="159"/>
+      <c r="D23" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="160" t="s">
+      <c r="E23" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="126"/>
       <c r="B24" s="126"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160" t="s">
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="126"/>
       <c r="B25" s="126"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160" t="s">
+      <c r="C25" s="159"/>
+      <c r="D25" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="160" t="s">
+      <c r="E25" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="126"/>
       <c r="B26" s="126"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160" t="s">
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="126"/>
       <c r="B27" s="126"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160" t="s">
+      <c r="C27" s="159"/>
+      <c r="D27" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="160" t="s">
+      <c r="E27" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="126"/>
       <c r="B28" s="126"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160" t="s">
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="126"/>
       <c r="B29" s="126"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160" t="s">
+      <c r="C29" s="159"/>
+      <c r="D29" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="160" t="s">
+      <c r="E29" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="126"/>
       <c r="B30" s="126"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160" t="s">
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
     </row>
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="126"/>
       <c r="B31" s="126"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160" t="s">
+      <c r="C31" s="159"/>
+      <c r="D31" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="160" t="s">
+      <c r="E31" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
     </row>
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="126"/>
       <c r="B32" s="126"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160" t="s">
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
     </row>
     <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="201"/>
-      <c r="B33" s="201"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="203"/>
+      <c r="A33" s="200"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="201"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
@@ -42714,31 +42716,31 @@
       <c r="A34" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="195" t="s">
+      <c r="B34" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="195"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195" t="s">
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="195" t="s">
+      <c r="F34" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="195" t="s">
-        <v>400</v>
-      </c>
-      <c r="H34" s="195" t="s">
+      <c r="G34" s="194" t="s">
+        <v>399</v>
+      </c>
+      <c r="H34" s="194" t="s">
         <v>138</v>
       </c>
-      <c r="I34" s="195" t="s">
+      <c r="I34" s="194" t="s">
         <v>6</v>
       </c>
       <c r="J34" s="129" t="s">
         <v>139</v>
       </c>
       <c r="K34" s="129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75">
@@ -42747,116 +42749,116 @@
         <v>1</v>
       </c>
       <c r="C35" s="132"/>
-      <c r="D35" s="170"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="139" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="132" t="s">
-        <v>406</v>
-      </c>
-      <c r="G35" s="172" t="s">
-        <v>411</v>
-      </c>
-      <c r="H35" s="171" t="s">
+        <v>405</v>
+      </c>
+      <c r="G35" s="171" t="s">
+        <v>410</v>
+      </c>
+      <c r="H35" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="171" t="s">
+      <c r="I35" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
+      <c r="J35" s="169"/>
+      <c r="K35" s="169"/>
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="53"/>
       <c r="B36" s="132"/>
       <c r="C36" s="132"/>
-      <c r="D36" s="170"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="139" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G36" s="132" t="s">
-        <v>412</v>
-      </c>
-      <c r="H36" s="173" t="s">
+        <v>411</v>
+      </c>
+      <c r="H36" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="I36" s="173" t="s">
+      <c r="I36" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
+      <c r="J36" s="169"/>
+      <c r="K36" s="169"/>
     </row>
     <row r="37" spans="1:13" ht="15.75">
       <c r="A37" s="53"/>
       <c r="B37" s="132"/>
       <c r="C37" s="132"/>
-      <c r="D37" s="170"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="F37" s="194" t="s">
-        <v>406</v>
-      </c>
-      <c r="G37" s="212" t="s">
-        <v>435</v>
-      </c>
-      <c r="H37" s="194" t="s">
+      <c r="F37" s="193" t="s">
+        <v>405</v>
+      </c>
+      <c r="G37" s="211" t="s">
+        <v>434</v>
+      </c>
+      <c r="H37" s="193" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="212" t="s">
-        <v>434</v>
-      </c>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
+      <c r="I37" s="211" t="s">
+        <v>433</v>
+      </c>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
     </row>
     <row r="38" spans="1:13" ht="30">
       <c r="A38" s="53"/>
       <c r="B38" s="132"/>
       <c r="C38" s="132"/>
-      <c r="D38" s="170"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="211" t="s">
+      <c r="F38" s="210" t="s">
+        <v>450</v>
+      </c>
+      <c r="G38" s="193" t="s">
+        <v>425</v>
+      </c>
+      <c r="H38" s="210" t="s">
         <v>451</v>
       </c>
-      <c r="G38" s="194" t="s">
-        <v>426</v>
-      </c>
-      <c r="H38" s="211" t="s">
-        <v>452</v>
-      </c>
-      <c r="I38" s="194" t="s">
-        <v>425</v>
-      </c>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
+      <c r="I38" s="193" t="s">
+        <v>424</v>
+      </c>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
     </row>
     <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="53"/>
       <c r="B39" s="132"/>
       <c r="C39" s="132"/>
-      <c r="D39" s="170"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="144" t="s">
         <v>141</v>
       </c>
       <c r="F39" s="135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G39" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H39" s="176" t="s">
+        <v>413</v>
+      </c>
+      <c r="H39" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I39" s="176" t="s">
+      <c r="I39" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
+      <c r="J39" s="169"/>
+      <c r="K39" s="169"/>
     </row>
     <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="53"/>
@@ -42864,47 +42866,47 @@
         <v>2</v>
       </c>
       <c r="C40" s="132"/>
-      <c r="D40" s="170"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="144" t="s">
         <v>190</v>
       </c>
       <c r="F40" s="135" t="s">
+        <v>403</v>
+      </c>
+      <c r="G40" s="171" t="s">
+        <v>190</v>
+      </c>
+      <c r="H40" s="175" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="175" t="s">
         <v>404</v>
       </c>
-      <c r="G40" s="172" t="s">
-        <v>190</v>
-      </c>
-      <c r="H40" s="176" t="s">
-        <v>142</v>
-      </c>
-      <c r="I40" s="176" t="s">
-        <v>405</v>
-      </c>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
+      <c r="J40" s="169"/>
+      <c r="K40" s="169"/>
     </row>
     <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="53"/>
       <c r="B41" s="132"/>
       <c r="C41" s="132"/>
-      <c r="D41" s="170"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="140" t="s">
         <v>201</v>
       </c>
       <c r="F41" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="H41" s="176" t="s">
+      <c r="H41" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I41" s="170" t="s">
-        <v>408</v>
-      </c>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
+      <c r="I41" s="169" t="s">
+        <v>407</v>
+      </c>
+      <c r="J41" s="169"/>
+      <c r="K41" s="169"/>
     </row>
     <row r="42" spans="1:13" ht="15.75">
       <c r="A42" s="53"/>
@@ -42912,115 +42914,115 @@
         <v>3</v>
       </c>
       <c r="C42" s="132"/>
-      <c r="D42" s="170"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="144" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G42" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="176" t="s">
+      <c r="H42" s="175" t="s">
         <v>142</v>
       </c>
       <c r="I42" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
+      <c r="J42" s="169"/>
+      <c r="K42" s="169"/>
     </row>
     <row r="43" spans="1:13" ht="30">
       <c r="A43" s="53"/>
       <c r="B43" s="132"/>
       <c r="C43" s="132"/>
-      <c r="D43" s="170"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="144" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="135" t="s">
+        <v>405</v>
+      </c>
+      <c r="G43" s="171" t="s">
+        <v>415</v>
+      </c>
+      <c r="H43" s="175" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="G43" s="172" t="s">
-        <v>416</v>
-      </c>
-      <c r="H43" s="176" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" s="135" t="s">
-        <v>407</v>
-      </c>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
+      <c r="J43" s="169"/>
+      <c r="K43" s="169"/>
     </row>
     <row r="44" spans="1:13" ht="45">
       <c r="A44" s="53"/>
       <c r="B44" s="132"/>
       <c r="C44" s="132"/>
-      <c r="D44" s="170"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="211" t="s">
-        <v>448</v>
-      </c>
-      <c r="G44" s="211" t="s">
-        <v>453</v>
-      </c>
-      <c r="H44" s="176" t="s">
+      <c r="F44" s="210" t="s">
+        <v>447</v>
+      </c>
+      <c r="G44" s="210" t="s">
+        <v>452</v>
+      </c>
+      <c r="H44" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="176" t="s">
+      <c r="I44" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
     </row>
     <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="53"/>
       <c r="B45" s="132"/>
       <c r="C45" s="132"/>
-      <c r="D45" s="170"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="140" t="s">
-        <v>417</v>
-      </c>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
+        <v>416</v>
+      </c>
+      <c r="F45" s="169"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="169"/>
+      <c r="J45" s="169"/>
+      <c r="K45" s="169"/>
     </row>
     <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="53"/>
       <c r="B46" s="132"/>
       <c r="C46" s="132"/>
-      <c r="D46" s="170"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="140" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="170"/>
+      <c r="F46" s="169"/>
+      <c r="G46" s="169"/>
+      <c r="H46" s="169"/>
+      <c r="I46" s="169"/>
+      <c r="J46" s="169"/>
+      <c r="K46" s="169"/>
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="53"/>
       <c r="B47" s="132"/>
       <c r="C47" s="132"/>
-      <c r="D47" s="170"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="140" t="s">
         <v>227</v>
       </c>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="169"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="169"/>
+      <c r="K47" s="169"/>
     </row>
     <row r="48" spans="1:13" ht="45.75" thickBot="1">
       <c r="A48" s="53"/>
@@ -43028,24 +43030,24 @@
         <v>4</v>
       </c>
       <c r="C48" s="132"/>
-      <c r="D48" s="170"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="140" t="s">
         <v>228</v>
       </c>
       <c r="F48" s="127" t="s">
-        <v>418</v>
-      </c>
-      <c r="G48" s="211" t="s">
-        <v>455</v>
+        <v>417</v>
+      </c>
+      <c r="G48" s="210" t="s">
+        <v>454</v>
       </c>
       <c r="H48" s="132" t="s">
         <v>142</v>
       </c>
       <c r="I48" s="132" t="s">
-        <v>419</v>
-      </c>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
+        <v>418</v>
+      </c>
+      <c r="J48" s="169"/>
+      <c r="K48" s="169"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickBot="1">
       <c r="A49" s="53"/>
@@ -43053,24 +43055,24 @@
         <v>5</v>
       </c>
       <c r="C49" s="132"/>
-      <c r="D49" s="170"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="140" t="s">
         <v>229</v>
       </c>
       <c r="F49" s="132" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" s="212" t="s">
+        <v>455</v>
+      </c>
+      <c r="H49" s="132" t="s">
         <v>420</v>
       </c>
-      <c r="G49" s="213" t="s">
-        <v>456</v>
-      </c>
-      <c r="H49" s="132" t="s">
+      <c r="I49" s="132" t="s">
         <v>421</v>
       </c>
-      <c r="I49" s="132" t="s">
-        <v>422</v>
-      </c>
-      <c r="J49" s="170"/>
-      <c r="K49" s="170"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="169"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43100,17 +43102,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="219" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
+      <c r="A1" s="224" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="129" t="s">
@@ -43125,42 +43127,42 @@
       <c r="D2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="197" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="197" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="198" t="s">
+      <c r="H2" s="197" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="198" t="s">
-        <v>264</v>
+      <c r="I2" s="197" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="203" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="199">
+      <c r="B3" s="198">
         <v>1</v>
       </c>
       <c r="C3" s="139"/>
       <c r="D3" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="204"/>
-      <c r="B4" s="199">
+      <c r="A4" s="203"/>
+      <c r="B4" s="198">
         <v>2</v>
       </c>
       <c r="C4" s="139" t="s">
@@ -43169,50 +43171,50 @@
       <c r="D4" s="139" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="204"/>
-      <c r="B5" s="199"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="139"/>
       <c r="D5" s="139" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="204"/>
-      <c r="B6" s="199"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="139"/>
       <c r="D6" s="139" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="204"/>
-      <c r="B7" s="199"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="198"/>
       <c r="C7" s="139"/>
       <c r="D7" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="122"/>
@@ -43237,7 +43239,7 @@
         <v>137</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G9" s="130" t="s">
         <v>138</v>
@@ -43249,7 +43251,7 @@
         <v>139</v>
       </c>
       <c r="J9" s="130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
@@ -43301,19 +43303,19 @@
       <c r="B13" s="127"/>
       <c r="C13" s="133"/>
       <c r="D13" s="141" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" s="205" t="s">
-        <v>406</v>
+        <v>409</v>
+      </c>
+      <c r="E13" s="204" t="s">
+        <v>405</v>
       </c>
       <c r="F13" s="127" t="s">
         <v>238</v>
       </c>
-      <c r="G13" s="206" t="s">
+      <c r="G13" s="205" t="s">
         <v>142</v>
       </c>
       <c r="H13" s="133" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
@@ -43341,8 +43343,8 @@
       <c r="D15" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="207" t="s">
-        <v>406</v>
+      <c r="E15" s="206" t="s">
+        <v>405</v>
       </c>
       <c r="F15" s="133"/>
       <c r="G15" s="133" t="s">
@@ -43361,17 +43363,17 @@
       <c r="D16" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="205" t="s">
-        <v>406</v>
-      </c>
-      <c r="F16" s="208" t="s">
+      <c r="E16" s="204" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="207" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="206" t="s">
+      <c r="G16" s="205" t="s">
         <v>142</v>
       </c>
       <c r="H16" s="133" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I16" s="133"/>
       <c r="J16" s="133"/>
@@ -43399,16 +43401,16 @@
       <c r="D18" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="205" t="s">
-        <v>406</v>
-      </c>
-      <c r="F18" s="208" t="s">
+      <c r="E18" s="204" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="206" t="s">
+      <c r="G18" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="205" t="s">
+      <c r="H18" s="204" t="s">
         <v>150</v>
       </c>
       <c r="I18" s="133"/>
@@ -43421,17 +43423,17 @@
       <c r="D19" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="205" t="s">
+      <c r="E19" s="204" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19" s="148" t="s">
+        <v>415</v>
+      </c>
+      <c r="G19" s="205" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="204" t="s">
         <v>406</v>
-      </c>
-      <c r="F19" s="148" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="206" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="205" t="s">
-        <v>407</v>
       </c>
       <c r="I19" s="133"/>
       <c r="J19" s="133"/>
@@ -43443,12 +43445,12 @@
       <c r="D20" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="209"/>
+      <c r="E20" s="208"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="210" t="s">
+      <c r="G20" s="209" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="210" t="s">
+      <c r="H20" s="209" t="s">
         <v>154</v>
       </c>
       <c r="I20" s="133"/>
@@ -43461,16 +43463,16 @@
       <c r="D21" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="211" t="s">
-        <v>448</v>
-      </c>
-      <c r="F21" s="211" t="s">
-        <v>453</v>
-      </c>
-      <c r="G21" s="206" t="s">
+      <c r="E21" s="210" t="s">
+        <v>447</v>
+      </c>
+      <c r="F21" s="210" t="s">
+        <v>452</v>
+      </c>
+      <c r="G21" s="205" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="206" t="s">
+      <c r="H21" s="205" t="s">
         <v>153</v>
       </c>
       <c r="I21" s="133"/>
@@ -43524,152 +43526,152 @@
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="69"/>
       <c r="B1" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="218" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="214" t="s">
+      <c r="D1" s="219"/>
+      <c r="E1" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="72" t="s">
         <v>336</v>
-      </c>
-      <c r="D1" s="215"/>
-      <c r="E1" s="71" t="s">
-        <v>335</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>339</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>340</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="78" t="s">
         <v>339</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>340</v>
-      </c>
-      <c r="C3" s="79" t="s">
+      <c r="D3" s="80" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="E3" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="82" t="s">
         <v>343</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="83" t="s">
         <v>163</v>
       </c>
       <c r="D4" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="82" t="s">
         <v>346</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="74" t="s">
         <v>348</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>349</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>350</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>351</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45.75" thickBot="1">
       <c r="A7" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="C7" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="D7" s="88" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="E7" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="90" t="s">
         <v>355</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>356</v>
       </c>
       <c r="G7" s="91"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="92" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="92" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -43713,21 +43715,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>290</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -43735,190 +43737,190 @@
     </row>
     <row r="3" spans="1:4" ht="105">
       <c r="A3" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="C3" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="D3" s="62" t="s">
         <v>295</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="120">
       <c r="A4" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="C4" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="D4" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="120">
       <c r="A5" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="C5" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="D5" s="62" t="s">
         <v>303</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120">
       <c r="A6" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="C6" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>307</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="63"/>
       <c r="C7" s="65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="120">
       <c r="A8" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="C8" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>311</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="120">
       <c r="A9" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="C9" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>315</v>
-      </c>
       <c r="D9" s="62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="120">
       <c r="A10" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="C10" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>318</v>
-      </c>
       <c r="D10" s="62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120">
       <c r="A11" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="C11" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>321</v>
-      </c>
       <c r="D11" s="62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="135">
       <c r="A13" s="60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B13" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="D13" s="62" t="s">
         <v>323</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="135">
       <c r="A14" s="60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B14" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>326</v>
-      </c>
       <c r="D14" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="135">
       <c r="A15" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>328</v>
-      </c>
       <c r="D15" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="135">
       <c r="A16" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="C16" s="61" t="s">
-        <v>330</v>
-      </c>
       <c r="D16" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="165">
       <c r="A18" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="61" t="s">
+      <c r="D18" s="62" t="s">
         <v>332</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -43931,7 +43933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
@@ -43962,12 +43964,12 @@
       <c r="H1" s="220"/>
       <c r="I1" s="220"/>
       <c r="J1" s="220"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
     </row>
     <row r="2" spans="1:13" ht="30">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="168" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="129" t="s">
@@ -43989,7 +43991,7 @@
         <v>138</v>
       </c>
       <c r="H2" s="129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I2" s="129" t="s">
         <v>6</v>
@@ -43998,10 +44000,10 @@
         <v>139</v>
       </c>
       <c r="K2" s="129" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
+        <v>263</v>
+      </c>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
     </row>
     <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="127" t="s">
@@ -44021,10 +44023,10 @@
       <c r="I3" s="127"/>
       <c r="J3" s="127"/>
       <c r="K3" s="127"/>
-      <c r="L3" s="221" t="s">
+      <c r="L3" s="213" t="s">
         <v>169</v>
       </c>
-      <c r="M3" s="221" t="s">
+      <c r="M3" s="213" t="s">
         <v>170</v>
       </c>
     </row>
@@ -44040,24 +44042,24 @@
       <c r="E4" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="178" t="s">
-        <v>458</v>
-      </c>
-      <c r="G4" s="178" t="s">
-        <v>258</v>
-      </c>
-      <c r="H4" s="178" t="s">
+      <c r="F4" s="177" t="s">
         <v>457</v>
       </c>
-      <c r="I4" s="178" t="s">
+      <c r="G4" s="177" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="177" t="s">
+        <v>456</v>
+      </c>
+      <c r="I4" s="177" t="s">
         <v>140</v>
       </c>
       <c r="J4" s="127" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K4" s="127"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
     </row>
     <row r="5" spans="1:13" ht="120">
       <c r="A5" s="127"/>
@@ -44070,23 +44072,23 @@
         <v>11</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H5" s="127" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I5" s="127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J5" s="127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K5" s="127"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="221"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
     </row>
     <row r="6" spans="1:13" ht="90">
       <c r="A6" s="127"/>
@@ -44097,23 +44099,23 @@
         <v>12</v>
       </c>
       <c r="F6" s="127" t="s">
+        <v>458</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="127" t="s">
         <v>459</v>
       </c>
-      <c r="G6" s="127" t="s">
-        <v>259</v>
-      </c>
-      <c r="H6" s="127" t="s">
-        <v>460</v>
-      </c>
       <c r="I6" s="127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J6" s="127" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K6" s="127"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="213"/>
     </row>
     <row r="7" spans="1:13" ht="90">
       <c r="A7" s="127"/>
@@ -44125,22 +44127,22 @@
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H7" s="127" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I7" s="127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J7" s="127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K7" s="127"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="221"/>
-    </row>
-    <row r="8" spans="1:13" ht="150">
+      <c r="L7" s="213"/>
+      <c r="M7" s="213"/>
+    </row>
+    <row r="8" spans="1:13" ht="90">
       <c r="A8" s="127"/>
       <c r="B8" s="127">
         <v>3</v>
@@ -44153,19 +44155,19 @@
         <v>15</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H8" s="127"/>
       <c r="I8" s="127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J8" s="127"/>
       <c r="K8" s="127"/>
-      <c r="L8" s="221"/>
-      <c r="M8" s="221"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
     </row>
     <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="127"/>
@@ -44185,23 +44187,23 @@
       <c r="I9" s="127"/>
       <c r="J9" s="127"/>
       <c r="K9" s="127"/>
-      <c r="L9" s="221"/>
-      <c r="M9" s="221"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="213"/>
     </row>
     <row r="10" spans="1:13" ht="15.75">
-      <c r="A10" s="222"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="221"/>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="221"/>
+      <c r="A10" s="214"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
     </row>
     <row r="11" spans="1:13" ht="30">
       <c r="A11" s="127" t="s">
@@ -44223,7 +44225,7 @@
         <v>137</v>
       </c>
       <c r="G11" s="130" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H11" s="130" t="s">
         <v>138</v>
@@ -44235,10 +44237,10 @@
         <v>139</v>
       </c>
       <c r="K11" s="130" t="s">
-        <v>264</v>
-      </c>
-      <c r="L11" s="221"/>
-      <c r="M11" s="221"/>
+        <v>263</v>
+      </c>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
     </row>
     <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="127"/>
@@ -44251,10 +44253,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G12" s="148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H12" s="133" t="s">
         <v>142</v>
@@ -44264,8 +44266,8 @@
       </c>
       <c r="J12" s="131"/>
       <c r="K12" s="131"/>
-      <c r="L12" s="221"/>
-      <c r="M12" s="221"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="127"/>
@@ -44276,10 +44278,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G13" s="149" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H13" s="133" t="s">
         <v>142</v>
@@ -44289,8 +44291,8 @@
       </c>
       <c r="J13" s="131"/>
       <c r="K13" s="131"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="127"/>
@@ -44301,10 +44303,10 @@
         <v>20</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G14" s="149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H14" s="133" t="s">
         <v>142</v>
@@ -44314,8 +44316,8 @@
       </c>
       <c r="J14" s="131"/>
       <c r="K14" s="131"/>
-      <c r="L14" s="221"/>
-      <c r="M14" s="221"/>
+      <c r="L14" s="213"/>
+      <c r="M14" s="213"/>
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="127"/>
@@ -44326,7 +44328,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G15" s="148" t="s">
         <v>21</v>
@@ -44339,8 +44341,8 @@
       </c>
       <c r="J15" s="131"/>
       <c r="K15" s="131"/>
-      <c r="L15" s="221"/>
-      <c r="M15" s="221"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="213"/>
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="127"/>
@@ -44351,10 +44353,10 @@
         <v>141</v>
       </c>
       <c r="F16" s="147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G16" s="149" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H16" s="133" t="s">
         <v>142</v>
@@ -44364,10 +44366,10 @@
       </c>
       <c r="J16" s="131"/>
       <c r="K16" s="131"/>
-      <c r="L16" s="221"/>
-      <c r="M16" s="221"/>
-    </row>
-    <row r="17" spans="1:13" ht="24">
+      <c r="L16" s="213"/>
+      <c r="M16" s="213"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="127"/>
       <c r="B17" s="127">
         <v>2</v>
@@ -44378,10 +44380,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G17" s="148" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H17" s="133" t="s">
         <v>142</v>
@@ -44391,10 +44393,10 @@
       </c>
       <c r="J17" s="131"/>
       <c r="K17" s="131"/>
-      <c r="L17" s="221"/>
-      <c r="M17" s="221"/>
-    </row>
-    <row r="18" spans="1:13" ht="30">
+      <c r="L17" s="213"/>
+      <c r="M17" s="213"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="127"/>
       <c r="B18" s="127"/>
       <c r="C18" s="131"/>
@@ -44402,8 +44404,8 @@
       <c r="E18" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="223" t="s">
-        <v>447</v>
+      <c r="F18" s="215" t="s">
+        <v>446</v>
       </c>
       <c r="G18" s="149" t="s">
         <v>24</v>
@@ -44416,8 +44418,8 @@
       </c>
       <c r="J18" s="131"/>
       <c r="K18" s="131"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
     </row>
     <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="127"/>
@@ -44430,7 +44432,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="150" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G19" s="149" t="s">
         <v>25</v>
@@ -44443,8 +44445,8 @@
       </c>
       <c r="J19" s="131"/>
       <c r="K19" s="131"/>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
     </row>
     <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="127"/>
@@ -44455,10 +44457,10 @@
         <v>26</v>
       </c>
       <c r="F20" s="150" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G20" s="148" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H20" s="137" t="s">
         <v>142</v>
@@ -44468,8 +44470,8 @@
       </c>
       <c r="J20" s="131"/>
       <c r="K20" s="131"/>
-      <c r="L20" s="221"/>
-      <c r="M20" s="221"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="213"/>
     </row>
     <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="127"/>
@@ -44480,7 +44482,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G21" s="127" t="s">
         <v>27</v>
@@ -44493,8 +44495,8 @@
       </c>
       <c r="J21" s="131"/>
       <c r="K21" s="131"/>
-      <c r="L21" s="221"/>
-      <c r="M21" s="221"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
     </row>
     <row r="22" spans="1:13" ht="30">
       <c r="A22" s="127"/>
@@ -44505,10 +44507,10 @@
         <v>7</v>
       </c>
       <c r="F22" s="127" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G22" s="127" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H22" s="136" t="s">
         <v>152</v>
@@ -44518,8 +44520,8 @@
       </c>
       <c r="J22" s="131"/>
       <c r="K22" s="131"/>
-      <c r="L22" s="221"/>
-      <c r="M22" s="221"/>
+      <c r="L22" s="213"/>
+      <c r="M22" s="213"/>
     </row>
     <row r="23" spans="1:13" ht="30">
       <c r="A23" s="127"/>
@@ -44530,21 +44532,21 @@
       <c r="D23" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="224" t="s">
+      <c r="E23" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="225"/>
-      <c r="G23" s="225"/>
-      <c r="H23" s="225"/>
-      <c r="I23" s="225"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="217"/>
       <c r="J23" s="155" t="s">
         <v>158</v>
       </c>
       <c r="K23" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="L23" s="221"/>
-      <c r="M23" s="221"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
     </row>
     <row r="24" spans="1:13" ht="47.25">
       <c r="A24" s="127"/>
@@ -44555,19 +44557,19 @@
       <c r="D24" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="224" t="s">
+      <c r="E24" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="225"/>
-      <c r="I24" s="225"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="217"/>
       <c r="J24" s="155"/>
       <c r="K24" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="L24" s="221"/>
-      <c r="M24" s="221"/>
+      <c r="L24" s="213"/>
+      <c r="M24" s="213"/>
     </row>
     <row r="25" spans="1:13" ht="47.25">
       <c r="A25" s="127"/>
@@ -44576,19 +44578,19 @@
       <c r="D25" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="224" t="s">
+      <c r="E25" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="225"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="225"/>
-      <c r="I25" s="225"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
       <c r="J25" s="155"/>
       <c r="K25" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
+      <c r="L25" s="213"/>
+      <c r="M25" s="213"/>
     </row>
     <row r="26" spans="1:13" ht="31.5">
       <c r="A26" s="127"/>
@@ -44597,19 +44599,19 @@
       <c r="D26" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="224" t="s">
+      <c r="E26" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="225"/>
-      <c r="G26" s="225"/>
-      <c r="H26" s="225"/>
-      <c r="I26" s="225"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
       <c r="J26" s="155"/>
       <c r="K26" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
+      <c r="L26" s="213"/>
+      <c r="M26" s="213"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
       <c r="A27" s="2"/>
@@ -45327,8 +45329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45338,7 +45340,7 @@
     <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
@@ -45346,20 +45348,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
     </row>
     <row r="2" spans="1:11" ht="30">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="168" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="129" t="s">
@@ -45385,8 +45389,9 @@
         <v>139</v>
       </c>
       <c r="J2" s="129" t="s">
-        <v>264</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="K2" s="213"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="127" t="s">
@@ -45400,11 +45405,12 @@
       <c r="E3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="213"/>
     </row>
     <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="127"/>
@@ -45416,11 +45422,12 @@
       <c r="E4" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="213"/>
     </row>
     <row r="5" spans="1:11" ht="63">
       <c r="A5" s="127"/>
@@ -45434,17 +45441,20 @@
       <c r="E5" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="170"/>
+      <c r="F5" s="170" t="s">
+        <v>461</v>
+      </c>
       <c r="G5" s="170" t="s">
         <v>243</v>
       </c>
-      <c r="H5" s="171" t="s">
+      <c r="H5" s="170" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="170" t="s">
         <v>249</v>
       </c>
-      <c r="I5" s="171" t="s">
-        <v>250</v>
-      </c>
-      <c r="J5" s="170"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="213"/>
     </row>
     <row r="6" spans="1:11" ht="94.5">
       <c r="A6" s="127"/>
@@ -45456,17 +45466,20 @@
       <c r="E6" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="170"/>
-      <c r="G6" s="171" t="s">
+      <c r="F6" s="170" t="s">
+        <v>462</v>
+      </c>
+      <c r="G6" s="170" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="170" t="s">
         <v>244</v>
       </c>
-      <c r="H6" s="171" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="171" t="s">
-        <v>256</v>
-      </c>
-      <c r="J6" s="170"/>
+      <c r="I6" s="170" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="169"/>
+      <c r="K6" s="213"/>
     </row>
     <row r="7" spans="1:11" ht="110.25">
       <c r="A7" s="127"/>
@@ -45476,17 +45489,20 @@
       <c r="E7" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="170"/>
-      <c r="G7" s="171" t="s">
+      <c r="F7" s="170" t="s">
+        <v>462</v>
+      </c>
+      <c r="G7" s="170" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="170" t="s">
         <v>244</v>
       </c>
-      <c r="H7" s="171" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="171" t="s">
-        <v>254</v>
-      </c>
-      <c r="J7" s="170"/>
+      <c r="I7" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7" s="169"/>
+      <c r="K7" s="213"/>
     </row>
     <row r="8" spans="1:11" ht="110.25">
       <c r="A8" s="127"/>
@@ -45496,17 +45512,20 @@
       <c r="E8" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="170"/>
-      <c r="G8" s="171" t="s">
+      <c r="F8" s="170" t="s">
+        <v>462</v>
+      </c>
+      <c r="G8" s="170" t="s">
+        <v>243</v>
+      </c>
+      <c r="H8" s="170" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="171" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="171" t="s">
-        <v>255</v>
-      </c>
-      <c r="J8" s="170"/>
+      <c r="I8" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" s="169"/>
+      <c r="K8" s="213"/>
     </row>
     <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="127"/>
@@ -45520,24 +45539,31 @@
       <c r="E9" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="170"/>
-      <c r="G9" s="171" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="171" t="s">
+      <c r="F9" s="169"/>
+      <c r="G9" s="170" t="s">
         <v>246</v>
       </c>
-      <c r="I9" s="171" t="s">
-        <v>257</v>
-      </c>
-      <c r="J9" s="170"/>
+      <c r="H9" s="170" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="170" t="s">
+        <v>256</v>
+      </c>
+      <c r="J9" s="169"/>
+      <c r="K9" s="213"/>
     </row>
     <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="214"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
     </row>
     <row r="11" spans="1:11" ht="30">
       <c r="A11" s="127" t="s">
@@ -45557,7 +45583,7 @@
         <v>137</v>
       </c>
       <c r="G11" s="129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H11" s="129" t="s">
         <v>138</v>
@@ -45569,7 +45595,7 @@
         <v>139</v>
       </c>
       <c r="K11" s="129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75">
@@ -45583,10 +45609,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H12" s="127" t="s">
         <v>142</v>
@@ -45606,10 +45632,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G13" s="132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H13" s="132" t="s">
         <v>142</v>
@@ -45629,10 +45655,10 @@
         <v>20</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G14" s="132" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H14" s="132" t="s">
         <v>142</v>
@@ -45652,7 +45678,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G15" s="127" t="s">
         <v>21</v>
@@ -45675,10 +45701,10 @@
         <v>141</v>
       </c>
       <c r="F16" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G16" s="132" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H16" s="132" t="s">
         <v>142</v>
@@ -45700,10 +45726,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H17" s="135" t="s">
         <v>142</v>
@@ -45722,8 +45748,8 @@
       <c r="E18" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="211" t="s">
-        <v>447</v>
+      <c r="F18" s="215" t="s">
+        <v>446</v>
       </c>
       <c r="G18" s="132" t="s">
         <v>24</v>
@@ -45748,7 +45774,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G19" s="132" t="s">
         <v>25</v>
@@ -45771,10 +45797,10 @@
         <v>26</v>
       </c>
       <c r="F20" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G20" s="127" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H20" s="135" t="s">
         <v>142</v>
@@ -45794,7 +45820,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G21" s="127" t="s">
         <v>27</v>
@@ -45816,11 +45842,11 @@
       <c r="E22" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="211" t="s">
-        <v>448</v>
-      </c>
-      <c r="G22" s="211" t="s">
-        <v>453</v>
+      <c r="F22" s="215" t="s">
+        <v>447</v>
+      </c>
+      <c r="G22" s="215" t="s">
+        <v>452</v>
       </c>
       <c r="H22" s="135" t="s">
         <v>152</v>
@@ -45837,14 +45863,14 @@
         <v>4</v>
       </c>
       <c r="C23" s="140"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="157" t="s">
+      <c r="D23" s="146"/>
+      <c r="E23" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="132"/>
       <c r="K23" s="132"/>
     </row>
@@ -45854,14 +45880,14 @@
         <v>5</v>
       </c>
       <c r="C24" s="140"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157" t="s">
+      <c r="D24" s="146"/>
+      <c r="E24" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
       <c r="J24" s="132"/>
       <c r="K24" s="132"/>
     </row>
@@ -45869,14 +45895,14 @@
       <c r="A25" s="127"/>
       <c r="B25" s="127"/>
       <c r="C25" s="140"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="157" t="s">
+      <c r="D25" s="146"/>
+      <c r="E25" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
       <c r="J25" s="132"/>
       <c r="K25" s="132"/>
     </row>
@@ -45884,14 +45910,14 @@
       <c r="A26" s="127"/>
       <c r="B26" s="127"/>
       <c r="C26" s="140"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="157" t="s">
+      <c r="D26" s="146"/>
+      <c r="E26" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
       <c r="J26" s="132"/>
       <c r="K26" s="132"/>
     </row>
@@ -46548,18 +46574,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="151" t="s">
@@ -46588,7 +46614,7 @@
         <v>139</v>
       </c>
       <c r="J2" s="124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
@@ -46603,11 +46629,11 @@
       <c r="E3" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="55"/>
@@ -46619,471 +46645,471 @@
       <c r="E4" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="55"/>
       <c r="B5" s="55">
         <v>3</v>
       </c>
-      <c r="C5" s="179">
+      <c r="C5" s="178">
         <v>2019</v>
       </c>
       <c r="D5" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="180" t="s">
+      <c r="E5" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="167" t="s">
+      <c r="F5" s="166"/>
+      <c r="G5" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
+      <c r="H5" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
     </row>
     <row r="6" spans="1:10" ht="31.5">
       <c r="A6" s="55"/>
       <c r="B6" s="55"/>
-      <c r="C6" s="179"/>
+      <c r="C6" s="178"/>
       <c r="D6" s="154"/>
-      <c r="E6" s="180" t="s">
+      <c r="E6" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="167"/>
-      <c r="G6" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="55"/>
       <c r="B7" s="55"/>
-      <c r="C7" s="179"/>
+      <c r="C7" s="178"/>
       <c r="D7" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="167" t="s">
+      <c r="F7" s="166"/>
+      <c r="G7" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
+      <c r="H7" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
     </row>
     <row r="8" spans="1:10" ht="31.5">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
-      <c r="C8" s="179"/>
+      <c r="C8" s="178"/>
       <c r="D8" s="154"/>
-      <c r="E8" s="180" t="s">
+      <c r="E8" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="167"/>
-      <c r="G8" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H8" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
-      <c r="C9" s="179"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="180" t="s">
+      <c r="E9" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H9" s="167" t="s">
+      <c r="F9" s="166"/>
+      <c r="G9" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
+      <c r="H9" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:10" ht="31.5">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
-      <c r="C10" s="179"/>
+      <c r="C10" s="178"/>
       <c r="D10" s="154"/>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
-      <c r="C11" s="179"/>
+      <c r="C11" s="178"/>
       <c r="D11" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="180" t="s">
+      <c r="E11" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11" s="167" t="s">
+      <c r="F11" s="166"/>
+      <c r="G11" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
+      <c r="H11" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
     </row>
     <row r="12" spans="1:10" ht="31.5">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="179"/>
+      <c r="C12" s="178"/>
       <c r="D12" s="154"/>
-      <c r="E12" s="180" t="s">
+      <c r="E12" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="167"/>
-      <c r="G12" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
-      <c r="C13" s="179"/>
+      <c r="C13" s="178"/>
       <c r="D13" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="180" t="s">
+      <c r="E13" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13" s="167" t="s">
+      <c r="F13" s="166"/>
+      <c r="G13" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
+      <c r="H13" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
     </row>
     <row r="14" spans="1:10" ht="31.5">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="179"/>
+      <c r="C14" s="178"/>
       <c r="D14" s="154"/>
-      <c r="E14" s="180" t="s">
+      <c r="E14" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="167"/>
-      <c r="G14" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H14" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
-      <c r="C15" s="179"/>
+      <c r="C15" s="178"/>
       <c r="D15" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H15" s="167" t="s">
+      <c r="F15" s="166"/>
+      <c r="G15" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
+      <c r="H15" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:10" ht="31.5">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
-      <c r="C16" s="179"/>
+      <c r="C16" s="178"/>
       <c r="D16" s="154"/>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="167"/>
-      <c r="G16" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H16" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="179"/>
+      <c r="C17" s="178"/>
       <c r="D17" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="180" t="s">
+      <c r="E17" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="167" t="s">
+      <c r="F17" s="166"/>
+      <c r="G17" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
+      <c r="H17" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
     </row>
     <row r="18" spans="1:10" ht="31.5">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="179"/>
+      <c r="C18" s="178"/>
       <c r="D18" s="154"/>
-      <c r="E18" s="180" t="s">
+      <c r="E18" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="167"/>
-      <c r="G18" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="55"/>
       <c r="B19" s="55"/>
-      <c r="C19" s="179"/>
+      <c r="C19" s="178"/>
       <c r="D19" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="180" t="s">
+      <c r="E19" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19" s="167" t="s">
+      <c r="F19" s="166"/>
+      <c r="G19" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
+      <c r="H19" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
     </row>
     <row r="20" spans="1:10" ht="31.5">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="179"/>
+      <c r="C20" s="178"/>
       <c r="D20" s="154"/>
-      <c r="E20" s="180" t="s">
+      <c r="E20" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="167"/>
-      <c r="G20" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H20" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
-      <c r="C21" s="179"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="180" t="s">
+      <c r="E21" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="167" t="s">
+      <c r="F21" s="166"/>
+      <c r="G21" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
+      <c r="H21" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" ht="31.5">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="179"/>
+      <c r="C22" s="178"/>
       <c r="D22" s="154"/>
-      <c r="E22" s="180" t="s">
+      <c r="E22" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="167"/>
-      <c r="G22" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H22" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H22" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="179"/>
+      <c r="C23" s="178"/>
       <c r="D23" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="180" t="s">
+      <c r="E23" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H23" s="167" t="s">
+      <c r="F23" s="166"/>
+      <c r="G23" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
+      <c r="H23" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
     </row>
     <row r="24" spans="1:10" ht="31.5">
       <c r="A24" s="55"/>
       <c r="B24" s="55"/>
-      <c r="C24" s="179"/>
+      <c r="C24" s="178"/>
       <c r="D24" s="154"/>
-      <c r="E24" s="180" t="s">
+      <c r="E24" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="167"/>
-      <c r="G24" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H24" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H24" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="179"/>
+      <c r="C25" s="178"/>
       <c r="D25" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="180" t="s">
+      <c r="E25" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="167" t="s">
+      <c r="F25" s="166"/>
+      <c r="G25" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
+      <c r="H25" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
     </row>
     <row r="26" spans="1:10" ht="31.5">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
-      <c r="C26" s="179"/>
+      <c r="C26" s="178"/>
       <c r="D26" s="154"/>
-      <c r="E26" s="180" t="s">
+      <c r="E26" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="167"/>
-      <c r="G26" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
-      <c r="C27" s="179"/>
+      <c r="C27" s="178"/>
       <c r="D27" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="180" t="s">
+      <c r="E27" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="167" t="s">
+      <c r="F27" s="166"/>
+      <c r="G27" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
+      <c r="H27" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="1:10" ht="31.5">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="179"/>
+      <c r="C28" s="178"/>
       <c r="D28" s="154"/>
-      <c r="E28" s="180" t="s">
+      <c r="E28" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="167"/>
-      <c r="G28" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="H28" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="55"/>
@@ -47097,11 +47123,11 @@
       <c r="E29" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="55"/>
@@ -47111,11 +47137,11 @@
       <c r="E30" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="39"/>
@@ -47160,7 +47186,7 @@
         <v>137</v>
       </c>
       <c r="G34" s="129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H34" s="129" t="s">
         <v>138</v>
@@ -47172,7 +47198,7 @@
         <v>139</v>
       </c>
       <c r="K34" s="129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75">
@@ -47180,315 +47206,315 @@
       <c r="B35" s="127">
         <v>1</v>
       </c>
-      <c r="C35" s="170"/>
+      <c r="C35" s="169"/>
       <c r="D35" s="140"/>
       <c r="E35" s="139" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="132" t="s">
-        <v>406</v>
-      </c>
-      <c r="G35" s="172" t="s">
-        <v>411</v>
-      </c>
-      <c r="H35" s="171" t="s">
+        <v>405</v>
+      </c>
+      <c r="G35" s="171" t="s">
+        <v>410</v>
+      </c>
+      <c r="H35" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="171" t="s">
+      <c r="I35" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
+      <c r="J35" s="169"/>
+      <c r="K35" s="169"/>
     </row>
     <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="127"/>
       <c r="B36" s="127"/>
-      <c r="C36" s="170"/>
+      <c r="C36" s="169"/>
       <c r="D36" s="140"/>
       <c r="E36" s="139" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G36" s="132" t="s">
-        <v>412</v>
-      </c>
-      <c r="H36" s="173" t="s">
+        <v>411</v>
+      </c>
+      <c r="H36" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="I36" s="173" t="s">
+      <c r="I36" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
+      <c r="J36" s="169"/>
+      <c r="K36" s="169"/>
     </row>
     <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="127"/>
       <c r="B37" s="127"/>
-      <c r="C37" s="170"/>
+      <c r="C37" s="169"/>
       <c r="D37" s="142"/>
       <c r="E37" s="143" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G37" s="132" t="s">
-        <v>413</v>
-      </c>
-      <c r="H37" s="173" t="s">
+        <v>412</v>
+      </c>
+      <c r="H37" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="173" t="s">
+      <c r="I37" s="172" t="s">
         <v>155</v>
       </c>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
     </row>
     <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="127"/>
       <c r="B38" s="127"/>
-      <c r="C38" s="170"/>
+      <c r="C38" s="169"/>
       <c r="D38" s="140"/>
       <c r="E38" s="139" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="132" t="s">
-        <v>406</v>
-      </c>
-      <c r="G38" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="G38" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="173" t="s">
+      <c r="H38" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="I38" s="173" t="s">
+      <c r="I38" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
     </row>
     <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="127"/>
       <c r="B39" s="127"/>
-      <c r="C39" s="170"/>
+      <c r="C39" s="169"/>
       <c r="D39" s="146"/>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="175"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="169"/>
+      <c r="K39" s="169"/>
     </row>
     <row r="40" spans="1:11" ht="45">
       <c r="A40" s="127"/>
       <c r="B40" s="127">
         <v>2</v>
       </c>
-      <c r="C40" s="170"/>
+      <c r="C40" s="169"/>
       <c r="D40" s="140"/>
       <c r="E40" s="139" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="132" t="s">
-        <v>406</v>
-      </c>
-      <c r="G40" s="172" t="s">
-        <v>415</v>
-      </c>
-      <c r="H40" s="173" t="s">
+        <v>405</v>
+      </c>
+      <c r="G40" s="171" t="s">
+        <v>414</v>
+      </c>
+      <c r="H40" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="I40" s="173" t="s">
+      <c r="I40" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
+      <c r="J40" s="169"/>
+      <c r="K40" s="169"/>
     </row>
     <row r="41" spans="1:11" ht="45">
       <c r="A41" s="127"/>
       <c r="B41" s="127"/>
-      <c r="C41" s="170"/>
+      <c r="C41" s="169"/>
       <c r="D41" s="144"/>
       <c r="E41" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="211" t="s">
-        <v>447</v>
+      <c r="F41" s="210" t="s">
+        <v>446</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="176" t="s">
+      <c r="H41" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="I41" s="176" t="s">
+      <c r="I41" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
+      <c r="J41" s="169"/>
+      <c r="K41" s="169"/>
     </row>
     <row r="42" spans="1:11" ht="15.75">
       <c r="A42" s="127"/>
       <c r="B42" s="127">
         <v>3</v>
       </c>
-      <c r="C42" s="170"/>
+      <c r="C42" s="169"/>
       <c r="D42" s="144"/>
       <c r="E42" s="145" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G42" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="176" t="s">
+      <c r="H42" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="176" t="s">
+      <c r="I42" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
+      <c r="J42" s="169"/>
+      <c r="K42" s="169"/>
     </row>
     <row r="43" spans="1:11" ht="30">
       <c r="A43" s="127"/>
       <c r="B43" s="127"/>
-      <c r="C43" s="170"/>
+      <c r="C43" s="169"/>
       <c r="D43" s="144"/>
       <c r="E43" s="145" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="135" t="s">
-        <v>406</v>
-      </c>
-      <c r="G43" s="172" t="s">
-        <v>416</v>
-      </c>
-      <c r="H43" s="176" t="s">
+        <v>405</v>
+      </c>
+      <c r="G43" s="171" t="s">
+        <v>415</v>
+      </c>
+      <c r="H43" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I43" s="176" t="s">
+      <c r="I43" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
+      <c r="J43" s="169"/>
+      <c r="K43" s="169"/>
     </row>
     <row r="44" spans="1:11" ht="15.75">
       <c r="A44" s="127"/>
       <c r="B44" s="127"/>
-      <c r="C44" s="170"/>
+      <c r="C44" s="169"/>
       <c r="D44" s="144"/>
       <c r="E44" s="145" t="s">
         <v>27</v>
       </c>
       <c r="F44" s="135" t="s">
-        <v>406</v>
-      </c>
-      <c r="G44" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="G44" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="176" t="s">
+      <c r="H44" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="176" t="s">
+      <c r="I44" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
     </row>
     <row r="45" spans="1:11" ht="45">
       <c r="A45" s="127"/>
       <c r="B45" s="127"/>
-      <c r="C45" s="170"/>
+      <c r="C45" s="169"/>
       <c r="D45" s="144"/>
       <c r="E45" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="211" t="s">
-        <v>448</v>
-      </c>
-      <c r="G45" s="211" t="s">
-        <v>453</v>
-      </c>
-      <c r="H45" s="176" t="s">
+      <c r="F45" s="210" t="s">
+        <v>447</v>
+      </c>
+      <c r="G45" s="210" t="s">
+        <v>452</v>
+      </c>
+      <c r="H45" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="I45" s="176" t="s">
+      <c r="I45" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
+      <c r="J45" s="169"/>
+      <c r="K45" s="169"/>
     </row>
     <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="127"/>
       <c r="B46" s="127">
         <v>4</v>
       </c>
-      <c r="C46" s="170"/>
+      <c r="C46" s="169"/>
       <c r="D46" s="146"/>
       <c r="E46" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="170"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="169"/>
+      <c r="K46" s="169"/>
     </row>
     <row r="47" spans="1:11" ht="31.5">
       <c r="A47" s="127"/>
       <c r="B47" s="127">
         <v>5</v>
       </c>
-      <c r="C47" s="170"/>
+      <c r="C47" s="169"/>
       <c r="D47" s="146"/>
       <c r="E47" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="177"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="177"/>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="176"/>
+      <c r="H47" s="176"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="169"/>
+      <c r="K47" s="169"/>
     </row>
     <row r="48" spans="1:11" ht="31.5">
       <c r="A48" s="127"/>
       <c r="B48" s="127"/>
-      <c r="C48" s="170"/>
+      <c r="C48" s="169"/>
       <c r="D48" s="146"/>
       <c r="E48" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="177"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="169"/>
+      <c r="K48" s="169"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="127"/>
       <c r="B49" s="127"/>
-      <c r="C49" s="170"/>
+      <c r="C49" s="169"/>
       <c r="D49" s="146"/>
       <c r="E49" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="177"/>
-      <c r="G49" s="177"/>
-      <c r="H49" s="177"/>
-      <c r="I49" s="177"/>
-      <c r="J49" s="170"/>
-      <c r="K49" s="170"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="176"/>
+      <c r="H49" s="176"/>
+      <c r="I49" s="176"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="169"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickBot="1">
       <c r="A50" s="12"/>
@@ -48082,26 +48108,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="222" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="184"/>
+      <c r="C2" s="183"/>
       <c r="D2" s="125" t="s">
         <v>102</v>
       </c>
@@ -48121,104 +48147,104 @@
         <v>139</v>
       </c>
       <c r="J2" s="125" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="185">
+      <c r="B3" s="184">
         <v>1</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="185" t="s">
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
     </row>
     <row r="4" spans="1:11" ht="60">
       <c r="A4" s="55"/>
-      <c r="B4" s="185">
+      <c r="B4" s="184">
         <v>2</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="185" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="186" t="s">
+      <c r="D4" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188" t="s">
+      <c r="F4" s="186"/>
+      <c r="G4" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="189" t="s">
+      <c r="H4" s="188" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="188" t="s">
+      <c r="I4" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="187" t="s">
+      <c r="J4" s="186" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187" t="s">
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="55"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="185" t="s">
+      <c r="B6" s="184"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55"/>
-      <c r="B7" s="185">
+      <c r="B7" s="184">
         <v>3</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186" t="s">
+      <c r="C7" s="185"/>
+      <c r="D7" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="185" t="s">
+      <c r="E7" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
     </row>
     <row r="9" spans="1:11" ht="30">
       <c r="A9" s="127" t="s">
@@ -48238,7 +48264,7 @@
         <v>137</v>
       </c>
       <c r="G9" s="129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H9" s="129" t="s">
         <v>138</v>
@@ -48250,7 +48276,7 @@
         <v>139</v>
       </c>
       <c r="K9" s="129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75">
@@ -48258,253 +48284,253 @@
       <c r="B10" s="127">
         <v>1</v>
       </c>
-      <c r="C10" s="170"/>
+      <c r="C10" s="169"/>
       <c r="D10" s="140"/>
       <c r="E10" s="139" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>406</v>
-      </c>
-      <c r="G10" s="172" t="s">
-        <v>411</v>
-      </c>
-      <c r="H10" s="171" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="171" t="s">
+        <v>410</v>
+      </c>
+      <c r="H10" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="171" t="s">
+      <c r="I10" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
     </row>
     <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="127"/>
       <c r="B11" s="127"/>
-      <c r="C11" s="170"/>
+      <c r="C11" s="169"/>
       <c r="D11" s="144"/>
       <c r="E11" s="145" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>412</v>
-      </c>
-      <c r="H11" s="176" t="s">
+        <v>411</v>
+      </c>
+      <c r="H11" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="176" t="s">
+      <c r="I11" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
     </row>
     <row r="12" spans="1:11" ht="45">
       <c r="A12" s="127"/>
       <c r="B12" s="127"/>
-      <c r="C12" s="170"/>
+      <c r="C12" s="169"/>
       <c r="D12" s="144"/>
       <c r="E12" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="211" t="s">
-        <v>447</v>
+      <c r="F12" s="210" t="s">
+        <v>446</v>
       </c>
       <c r="G12" s="132" t="s">
-        <v>413</v>
-      </c>
-      <c r="H12" s="176" t="s">
+        <v>412</v>
+      </c>
+      <c r="H12" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="176" t="s">
+      <c r="I12" s="175" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="181" t="s">
+      <c r="J12" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="170"/>
+      <c r="K12" s="169"/>
     </row>
     <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="127"/>
       <c r="B13" s="127"/>
-      <c r="C13" s="170"/>
+      <c r="C13" s="169"/>
       <c r="D13" s="144"/>
       <c r="E13" s="145" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>406</v>
-      </c>
-      <c r="G13" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="176" t="s">
+      <c r="H13" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="176" t="s">
+      <c r="I13" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
     </row>
     <row r="14" spans="1:11" ht="30">
       <c r="A14" s="127"/>
       <c r="B14" s="127">
         <v>2</v>
       </c>
-      <c r="C14" s="170"/>
+      <c r="C14" s="169"/>
       <c r="D14" s="144"/>
       <c r="E14" s="145" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>406</v>
-      </c>
-      <c r="G14" s="172" t="s">
-        <v>415</v>
-      </c>
-      <c r="H14" s="176" t="s">
+        <v>405</v>
+      </c>
+      <c r="G14" s="171" t="s">
+        <v>414</v>
+      </c>
+      <c r="H14" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="176" t="s">
+      <c r="I14" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
     </row>
     <row r="15" spans="1:11" ht="45">
       <c r="A15" s="127"/>
       <c r="B15" s="127"/>
-      <c r="C15" s="170"/>
+      <c r="C15" s="169"/>
       <c r="D15" s="144"/>
       <c r="E15" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="211" t="s">
-        <v>447</v>
+      <c r="F15" s="210" t="s">
+        <v>446</v>
       </c>
       <c r="G15" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="176" t="s">
+      <c r="H15" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="176" t="s">
+      <c r="I15" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
     </row>
     <row r="16" spans="1:11" ht="31.5">
       <c r="A16" s="127"/>
       <c r="B16" s="127">
         <v>3</v>
       </c>
-      <c r="C16" s="170"/>
+      <c r="C16" s="169"/>
       <c r="D16" s="144"/>
       <c r="E16" s="145" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G16" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="176" t="s">
+      <c r="H16" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="176" t="s">
+      <c r="I16" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
     </row>
     <row r="17" spans="1:11" ht="30">
       <c r="A17" s="127"/>
       <c r="B17" s="127"/>
-      <c r="C17" s="170"/>
+      <c r="C17" s="169"/>
       <c r="D17" s="144"/>
       <c r="E17" s="145" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="135" t="s">
-        <v>406</v>
-      </c>
-      <c r="G17" s="172" t="s">
-        <v>416</v>
-      </c>
-      <c r="H17" s="176" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17" s="171" t="s">
+        <v>415</v>
+      </c>
+      <c r="H17" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="176" t="s">
+      <c r="I17" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="127"/>
       <c r="B18" s="127"/>
-      <c r="C18" s="170"/>
+      <c r="C18" s="169"/>
       <c r="D18" s="144"/>
       <c r="E18" s="145" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="135" t="s">
-        <v>406</v>
-      </c>
-      <c r="G18" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="G18" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="176" t="s">
+      <c r="H18" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="176" t="s">
+      <c r="I18" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
     </row>
     <row r="19" spans="1:11" ht="31.5">
       <c r="A19" s="127"/>
       <c r="B19" s="127">
         <v>4</v>
       </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="182" t="s">
+      <c r="C19" s="169"/>
+      <c r="D19" s="181" t="s">
         <v>163</v>
       </c>
       <c r="E19" s="157" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="171" t="s">
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="170"/>
+      <c r="K19" s="169"/>
     </row>
     <row r="20" spans="1:11" ht="63">
       <c r="A20" s="127"/>
       <c r="B20" s="127"/>
-      <c r="C20" s="170"/>
+      <c r="C20" s="169"/>
       <c r="D20" s="156" t="s">
         <v>163</v>
       </c>
       <c r="E20" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="170"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="169"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickBot="1">
       <c r="A21" s="17"/>
@@ -49096,573 +49122,573 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="222" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
     </row>
     <row r="2" spans="1:10" ht="36">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="163" t="s">
+      <c r="E2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="163" t="s">
+      <c r="G2" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="162" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="163">
+        <v>1</v>
+      </c>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="163"/>
+      <c r="B4" s="163">
+        <v>2</v>
+      </c>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75">
+      <c r="A5" s="163"/>
+      <c r="B5" s="163">
+        <v>3</v>
+      </c>
+      <c r="C5" s="190">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="189" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="191" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+    </row>
+    <row r="6" spans="1:10" ht="37.5">
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="191" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="164"/>
+      <c r="G6" s="165" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="164" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="164">
-        <v>1</v>
-      </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="164"/>
-      <c r="B4" s="164">
-        <v>2</v>
-      </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="164"/>
-      <c r="B5" s="164">
-        <v>3</v>
-      </c>
-      <c r="C5" s="191">
-        <v>2019</v>
-      </c>
-      <c r="D5" s="190" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="192" t="s">
+      <c r="H6" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="189" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="165" t="s">
+      <c r="F7" s="164"/>
+      <c r="G7" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-    </row>
-    <row r="6" spans="1:10" ht="37.5">
-      <c r="A6" s="164"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="192" t="s">
+      <c r="H7" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+    </row>
+    <row r="8" spans="1:10" ht="37.5">
+      <c r="A8" s="163"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="165"/>
-      <c r="G6" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75">
-      <c r="A7" s="164"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="190" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="192" t="s">
+      <c r="F8" s="164"/>
+      <c r="G8" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
+      <c r="A9" s="163"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="189" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="165" t="s">
+      <c r="F9" s="164"/>
+      <c r="G9" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-    </row>
-    <row r="8" spans="1:10" ht="37.5">
-      <c r="A8" s="164"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="192" t="s">
+      <c r="H9" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+    </row>
+    <row r="10" spans="1:10" ht="37.5">
+      <c r="A10" s="163"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="165"/>
-      <c r="G8" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H8" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75">
-      <c r="A9" s="164"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="190" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="192" t="s">
+      <c r="F10" s="164"/>
+      <c r="G10" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75">
+      <c r="A11" s="163"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="189" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H9" s="165" t="s">
+      <c r="F11" s="164"/>
+      <c r="G11" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-    </row>
-    <row r="10" spans="1:10" ht="37.5">
-      <c r="A10" s="164"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="192" t="s">
+      <c r="H11" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+    </row>
+    <row r="12" spans="1:10" ht="37.5">
+      <c r="A12" s="163"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="165"/>
-      <c r="G10" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75">
-      <c r="A11" s="164"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="190" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="192" t="s">
+      <c r="F12" s="164"/>
+      <c r="G12" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="A13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="189" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11" s="165" t="s">
+      <c r="F13" s="164"/>
+      <c r="G13" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-    </row>
-    <row r="12" spans="1:10" ht="37.5">
-      <c r="A12" s="164"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="192" t="s">
+      <c r="H13" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+    </row>
+    <row r="14" spans="1:10" ht="37.5">
+      <c r="A14" s="163"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="165"/>
-      <c r="G12" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="164"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="190" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="192" t="s">
+      <c r="F14" s="164"/>
+      <c r="G14" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75">
+      <c r="A15" s="163"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13" s="165" t="s">
+      <c r="F15" s="164"/>
+      <c r="G15" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-    </row>
-    <row r="14" spans="1:10" ht="37.5">
-      <c r="A14" s="164"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="192" t="s">
+      <c r="H15" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+    </row>
+    <row r="16" spans="1:10" ht="37.5">
+      <c r="A16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="165"/>
-      <c r="G14" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H14" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75">
-      <c r="A15" s="164"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="190" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="192" t="s">
+      <c r="F16" s="164"/>
+      <c r="G16" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75">
+      <c r="A17" s="163"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="189" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H15" s="165" t="s">
+      <c r="F17" s="164"/>
+      <c r="G17" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-    </row>
-    <row r="16" spans="1:10" ht="37.5">
-      <c r="A16" s="164"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="192" t="s">
+      <c r="H17" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+    </row>
+    <row r="18" spans="1:10" ht="37.5">
+      <c r="A18" s="163"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="165"/>
-      <c r="G16" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H16" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75">
-      <c r="A17" s="164"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="190" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="192" t="s">
+      <c r="F18" s="164"/>
+      <c r="G18" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75">
+      <c r="A19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="189" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="165" t="s">
+      <c r="F19" s="164"/>
+      <c r="G19" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-    </row>
-    <row r="18" spans="1:10" ht="37.5">
-      <c r="A18" s="164"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="192" t="s">
+      <c r="H19" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+    </row>
+    <row r="20" spans="1:10" ht="37.5">
+      <c r="A20" s="163"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="165"/>
-      <c r="G18" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75">
-      <c r="A19" s="164"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="190" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="192" t="s">
+      <c r="F20" s="164"/>
+      <c r="G20" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75">
+      <c r="A21" s="163"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="189" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19" s="165" t="s">
+      <c r="F21" s="164"/>
+      <c r="G21" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-    </row>
-    <row r="20" spans="1:10" ht="37.5">
-      <c r="A20" s="164"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="192" t="s">
+      <c r="H21" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+    </row>
+    <row r="22" spans="1:10" ht="37.5">
+      <c r="A22" s="163"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="165"/>
-      <c r="G20" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H20" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75">
-      <c r="A21" s="164"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="190" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="192" t="s">
+      <c r="F22" s="164"/>
+      <c r="G22" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H22" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75">
+      <c r="A23" s="163"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="189" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="165" t="s">
+      <c r="F23" s="164"/>
+      <c r="G23" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-    </row>
-    <row r="22" spans="1:10" ht="37.5">
-      <c r="A22" s="164"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="192" t="s">
+      <c r="H23" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+    </row>
+    <row r="24" spans="1:10" ht="37.5">
+      <c r="A24" s="163"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="165"/>
-      <c r="G22" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H22" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="164"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="190" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="192" t="s">
+      <c r="F24" s="164"/>
+      <c r="G24" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H24" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75">
+      <c r="A25" s="163"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="189" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H23" s="165" t="s">
+      <c r="F25" s="164"/>
+      <c r="G25" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-    </row>
-    <row r="24" spans="1:10" ht="37.5">
-      <c r="A24" s="164"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="192" t="s">
+      <c r="H25" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+    </row>
+    <row r="26" spans="1:10" ht="37.5">
+      <c r="A26" s="163"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="165"/>
-      <c r="G24" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H24" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75">
-      <c r="A25" s="164"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="190" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="192" t="s">
+      <c r="F26" s="164"/>
+      <c r="G26" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75">
+      <c r="A27" s="163"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="165" t="s">
+      <c r="F27" s="164"/>
+      <c r="G27" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-    </row>
-    <row r="26" spans="1:10" ht="37.5">
-      <c r="A26" s="164"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="192" t="s">
+      <c r="H27" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+    </row>
+    <row r="28" spans="1:10" ht="37.5">
+      <c r="A28" s="163"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="165"/>
-      <c r="G26" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75">
-      <c r="A27" s="164"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="190" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="192" t="s">
+      <c r="F28" s="164"/>
+      <c r="G28" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75">
+      <c r="A29" s="163"/>
+      <c r="B29" s="163">
+        <v>4</v>
+      </c>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="165" t="s">
-        <v>261</v>
-      </c>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-    </row>
-    <row r="28" spans="1:10" ht="37.5">
-      <c r="A28" s="164"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="192" t="s">
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75">
+      <c r="A30" s="163"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="165"/>
-      <c r="G28" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="H28" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="164"/>
-      <c r="B29" s="164">
-        <v>4</v>
-      </c>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="190" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="164"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="39"/>
@@ -49707,7 +49733,7 @@
         <v>137</v>
       </c>
       <c r="G34" s="129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H34" s="129" t="s">
         <v>138</v>
@@ -49719,7 +49745,7 @@
         <v>139</v>
       </c>
       <c r="K34" s="129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75">
@@ -49733,10 +49759,10 @@
         <v>18</v>
       </c>
       <c r="F35" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G35" s="127" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H35" s="127" t="s">
         <v>142</v>
@@ -49756,10 +49782,10 @@
         <v>19</v>
       </c>
       <c r="F36" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G36" s="132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H36" s="135" t="s">
         <v>142</v>
@@ -49778,11 +49804,11 @@
       <c r="E37" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="211" t="s">
-        <v>447</v>
+      <c r="F37" s="210" t="s">
+        <v>446</v>
       </c>
       <c r="G37" s="132" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H37" s="135" t="s">
         <v>156</v>
@@ -49804,7 +49830,7 @@
         <v>21</v>
       </c>
       <c r="F38" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G38" s="127" t="s">
         <v>21</v>
@@ -49829,10 +49855,10 @@
         <v>23</v>
       </c>
       <c r="F39" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G39" s="127" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H39" s="135" t="s">
         <v>142</v>
@@ -49851,8 +49877,8 @@
       <c r="E40" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="211" t="s">
-        <v>447</v>
+      <c r="F40" s="210" t="s">
+        <v>446</v>
       </c>
       <c r="G40" s="132" t="s">
         <v>24</v>
@@ -49877,7 +49903,7 @@
         <v>25</v>
       </c>
       <c r="F41" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G41" s="132" t="s">
         <v>25</v>
@@ -49900,10 +49926,10 @@
         <v>26</v>
       </c>
       <c r="F42" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G42" s="127" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H42" s="135" t="s">
         <v>142</v>
@@ -49923,7 +49949,7 @@
         <v>27</v>
       </c>
       <c r="F43" s="135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G43" s="127" t="s">
         <v>27</v>
@@ -49947,17 +49973,17 @@
       <c r="E44" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="211" t="s">
+      <c r="F44" s="210" t="s">
+        <v>448</v>
+      </c>
+      <c r="G44" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="G44" s="178" t="s">
-        <v>450</v>
-      </c>
       <c r="H44" s="135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I44" s="135" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J44" s="127" t="s">
         <v>158</v>
@@ -49978,7 +50004,7 @@
       <c r="I45" s="138"/>
       <c r="J45" s="127"/>
       <c r="K45" s="132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickBot="1">
@@ -50562,12 +50588,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E02C194182EFF844B6EA2A0EA5B68C8E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53a1465ce78b936df409f0a6a902274c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09c4b621-4f79-4326-906f-0593de0a6512" xmlns:ns3="df1cb08e-cec6-421c-8a84-fcf2487913a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22291725b0ea22060fac57adaf9bb5a7" ns2:_="" ns3:_="">
     <xsd:import namespace="09c4b621-4f79-4326-906f-0593de0a6512"/>
@@ -50784,6 +50804,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710E3631-F1BD-452D-B404-73BC4434F1AB}">
   <ds:schemaRefs>
@@ -50793,15 +50819,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E712F6DD-E959-4D99-B007-2254DF5DD989}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0745304-B3A2-48AE-9941-5BB8EE1A5B27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50818,4 +50835,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E712F6DD-E959-4D99-B007-2254DF5DD989}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>